--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
   <si>
     <t>TPO 18</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Spartina 22'32''</t>
+  </si>
+  <si>
+    <t>Birth of Photograhpy 18'47''</t>
   </si>
   <si>
     <t>细节题</t>
@@ -314,6 +317,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
@@ -407,6 +416,11 @@
     </r>
   </si>
   <si>
+    <t>2 63s
+6 51s
+7 114s</t>
+  </si>
+  <si>
     <t>取非题</t>
   </si>
   <si>
@@ -488,6 +502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1 62s
 8 </t>
     </r>
@@ -603,6 +623,10 @@
     <t>5 20s</t>
   </si>
   <si>
+    <t>1 67s
+8 37s</t>
+  </si>
+  <si>
     <t>修辞目的</t>
   </si>
   <si>
@@ -771,10 +795,17 @@
     <t>1 17s</t>
   </si>
   <si>
+    <t>3 3s
+5 6s</t>
+  </si>
+  <si>
     <t>指代题</t>
   </si>
   <si>
     <t>先主后宾</t>
+  </si>
+  <si>
+    <t>4 30s</t>
   </si>
   <si>
     <t>句子简化</t>
@@ -912,6 +943,9 @@
     <t>9 67s</t>
   </si>
   <si>
+    <t>9 57s</t>
+  </si>
+  <si>
     <t>总结题</t>
   </si>
   <si>
@@ -998,6 +1032,9 @@
     <t>10 67s</t>
   </si>
   <si>
+    <t>10 120s</t>
+  </si>
+  <si>
     <t>23-26</t>
   </si>
   <si>
@@ -1028,6 +1065,12 @@
     <t>落叶性的</t>
   </si>
   <si>
+    <t>photography had been long and impatiently awaited.</t>
+  </si>
+  <si>
+    <t>人们对摄影的期待已经很长时间了。</t>
+  </si>
+  <si>
     <t>26-29</t>
   </si>
   <si>
@@ -1061,6 +1104,12 @@
     <t>常年性的</t>
   </si>
   <si>
+    <t>camera obscura</t>
+  </si>
+  <si>
+    <t>针孔相机</t>
+  </si>
+  <si>
     <t>heterogeneous</t>
   </si>
   <si>
@@ -1089,6 +1138,12 @@
   </si>
   <si>
     <t>高潮线和低潮线之间的</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>透镜</t>
   </si>
   <si>
     <t>ice caps</t>
@@ -1129,6 +1184,12 @@
     <t>海藻</t>
   </si>
   <si>
+    <t>ground-glass screen</t>
+  </si>
+  <si>
+    <t>毛玻璃屏</t>
+  </si>
+  <si>
     <t>temprate</t>
   </si>
   <si>
@@ -1157,72 +1218,6 @@
   </si>
   <si>
     <t>分泌</t>
-  </si>
-  <si>
-    <t>ice ages</t>
-  </si>
-  <si>
-    <t>冰河时代</t>
-  </si>
-  <si>
-    <t>the economy is favorable</t>
-  </si>
-  <si>
-    <t>经济形势良好</t>
-  </si>
-  <si>
-    <t>contemporary</t>
-  </si>
-  <si>
-    <t>当代的</t>
-  </si>
-  <si>
-    <t>verbal abilities</t>
-  </si>
-  <si>
-    <t>口头表达能力</t>
-  </si>
-  <si>
-    <t>feed on</t>
-  </si>
-  <si>
-    <t>以...为食</t>
-  </si>
-  <si>
-    <t>drift</t>
-  </si>
-  <si>
-    <t>漂浮物</t>
-  </si>
-  <si>
-    <t>transition</t>
-  </si>
-  <si>
-    <t>过渡</t>
-  </si>
-  <si>
-    <t>correlation</t>
-  </si>
-  <si>
-    <t>相互关系</t>
-  </si>
-  <si>
-    <t>sparrow</t>
-  </si>
-  <si>
-    <t>麻雀</t>
-  </si>
-  <si>
-    <t>radiometric dating</t>
-  </si>
-  <si>
-    <t>放射性测年法</t>
-  </si>
-  <si>
-    <t>fluidity</t>
-  </si>
-  <si>
-    <t>流动性</t>
   </si>
   <si>
     <r>
@@ -1232,29 +1227,89 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>elaboration</t>
-    </r>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>offshore water</t>
-  </si>
-  <si>
-    <t>近岸</t>
-  </si>
-  <si>
-    <t>map (gracial deposit)</t>
-  </si>
-  <si>
-    <t>绘制</t>
-  </si>
-  <si>
-    <t>pastoralism</t>
-  </si>
-  <si>
-    <t>畜牧</t>
+      <t>silvered copper plate</t>
+    </r>
+  </si>
+  <si>
+    <t>银质铜板</t>
+  </si>
+  <si>
+    <t>ice ages</t>
+  </si>
+  <si>
+    <t>冰河时代</t>
+  </si>
+  <si>
+    <t>the economy is favorable</t>
+  </si>
+  <si>
+    <t>经济形势良好</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>当代的</t>
+  </si>
+  <si>
+    <t>verbal abilities</t>
+  </si>
+  <si>
+    <t>口头表达能力</t>
+  </si>
+  <si>
+    <t>feed on</t>
+  </si>
+  <si>
+    <t>以...为食</t>
+  </si>
+  <si>
+    <t>etching</t>
+  </si>
+  <si>
+    <t>一种刻画形式</t>
+  </si>
+  <si>
+    <t>drift</t>
+  </si>
+  <si>
+    <t>漂浮物</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>过渡</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>相互关系</t>
+  </si>
+  <si>
+    <t>sparrow</t>
+  </si>
+  <si>
+    <t>麻雀</t>
+  </si>
+  <si>
+    <t>engraving</t>
+  </si>
+  <si>
+    <t>雕刻</t>
+  </si>
+  <si>
+    <t>radiometric dating</t>
+  </si>
+  <si>
+    <t>放射性测年法</t>
+  </si>
+  <si>
+    <t>fluidity</t>
+  </si>
+  <si>
+    <t>流动性</t>
   </si>
   <si>
     <r>
@@ -1264,47 +1319,35 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>narratives</t>
-    </r>
-  </si>
-  <si>
-    <t>叙述</t>
-  </si>
-  <si>
-    <t>take root</t>
-  </si>
-  <si>
-    <t>生根</t>
-  </si>
-  <si>
-    <t>glacier retreated</t>
-  </si>
-  <si>
-    <t>冰川消融</t>
-  </si>
-  <si>
-    <t>horticulture</t>
-  </si>
-  <si>
-    <t>园艺</t>
-  </si>
-  <si>
-    <t>intertwined</t>
-  </si>
-  <si>
-    <t>交错在一起</t>
-  </si>
-  <si>
-    <t>substrate</t>
-  </si>
-  <si>
-    <t>基质</t>
-  </si>
-  <si>
-    <t>calcium carbonate</t>
-  </si>
-  <si>
-    <t>碳酸钙</t>
+      <t>elaboration</t>
+    </r>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>offshore water</t>
+  </si>
+  <si>
+    <t>近岸</t>
+  </si>
+  <si>
+    <t>tonal</t>
+  </si>
+  <si>
+    <t>色调</t>
+  </si>
+  <si>
+    <t>map (gracial deposit)</t>
+  </si>
+  <si>
+    <t>绘制</t>
+  </si>
+  <si>
+    <t>pastoralism</t>
+  </si>
+  <si>
+    <t>畜牧</t>
   </si>
   <si>
     <r>
@@ -1314,83 +1357,59 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>contention</t>
-    </r>
-  </si>
-  <si>
-    <t>debate</t>
-  </si>
-  <si>
-    <t>No doubt the ability to talk about one's past represents memory of a different level of complexity than simple recognition or recall.</t>
-  </si>
-  <si>
-    <t>cobble</t>
-  </si>
-  <si>
-    <t>鹅卵石</t>
-  </si>
-  <si>
-    <t>calcite</t>
-  </si>
-  <si>
-    <t>方解石</t>
-  </si>
-  <si>
-    <t>take up</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>preserve</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>estuary</t>
-  </si>
-  <si>
-    <t>入海口</t>
-  </si>
-  <si>
-    <t>Different ratios in the shells preserved in various layers of sediment reveal the temperature changes in the oceans during the Pleistocene epoch.</t>
-  </si>
-  <si>
-    <t>take over</t>
-  </si>
-  <si>
-    <t>接管</t>
-  </si>
-  <si>
-    <t>isotopic</t>
-  </si>
-  <si>
-    <t>同位素</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>海拔</t>
-  </si>
-  <si>
-    <t>shrinkage</t>
-  </si>
-  <si>
-    <t>收缩</t>
-  </si>
-  <si>
-    <t>nursery</t>
-  </si>
-  <si>
-    <t>育苗区</t>
-  </si>
-  <si>
-    <t>equator</t>
-  </si>
-  <si>
-    <t>赤道</t>
+      <t>narratives</t>
+    </r>
+  </si>
+  <si>
+    <t>叙述</t>
+  </si>
+  <si>
+    <t>take root</t>
+  </si>
+  <si>
+    <t>生根</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>过时的</t>
+  </si>
+  <si>
+    <t>glacier retreated</t>
+  </si>
+  <si>
+    <t>冰川消融</t>
+  </si>
+  <si>
+    <t>horticulture</t>
+  </si>
+  <si>
+    <t>园艺</t>
+  </si>
+  <si>
+    <t>intertwined</t>
+  </si>
+  <si>
+    <t>交错在一起</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>基质</t>
+  </si>
+  <si>
+    <t>did away with</t>
+  </si>
+  <si>
+    <t>废除</t>
+  </si>
+  <si>
+    <t>calcium carbonate</t>
+  </si>
+  <si>
+    <t>碳酸钙</t>
   </si>
   <si>
     <r>
@@ -1400,11 +1419,139 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>contention</t>
+    </r>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>No doubt the ability to talk about one's past represents memory of a different level of complexity than simple recognition or recall.</t>
+  </si>
+  <si>
+    <t>cobble</t>
+  </si>
+  <si>
+    <t>鹅卵石</t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>小画像，一种艺术形式</t>
+  </si>
+  <si>
+    <t>calcite</t>
+  </si>
+  <si>
+    <t>方解石</t>
+  </si>
+  <si>
+    <t>take up</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>medium is prolific</t>
+  </si>
+  <si>
+    <t>媒介很多</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>入海口</t>
+  </si>
+  <si>
+    <t>multitude</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>Different ratios in the shells preserved in various layers of sediment reveal the temperature changes in the oceans during the Pleistocene epoch.</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>destined successor</t>
+  </si>
+  <si>
+    <t>注定的继任者</t>
+  </si>
+  <si>
+    <t>isotopic</t>
+  </si>
+  <si>
+    <t>同位素</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>影响；损害</t>
+  </si>
+  <si>
+    <t>shrinkage</t>
+  </si>
+  <si>
+    <t>收缩</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>育苗区</t>
+  </si>
+  <si>
+    <t>unposed pictures</t>
+  </si>
+  <si>
+    <t>抓拍的照片</t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>赤道</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>brackish-water</t>
     </r>
   </si>
   <si>
     <t>半咸水</t>
+  </si>
+  <si>
+    <t>radical cropping</t>
+  </si>
+  <si>
+    <t>彻底的裁剪</t>
   </si>
   <si>
     <t>precipitated</t>
@@ -2569,8 +2716,8 @@
   <sheetPr/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2589,15 +2736,17 @@
     <col min="12" max="12" width="10.4444444444444" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="36.4444444444444" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="16.1111111111111" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.4444444444444" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5555555555556" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1111111111111" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1296296296296" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="3" customWidth="1"/>
     <col min="22" max="22" width="15.6851851851852" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="23" max="23" width="23.0092592592593" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20.787037037037" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
@@ -2633,7 +2782,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="4:22">
+    <row r="2" ht="31" customHeight="1" spans="4:24">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2670,194 +2819,204 @@
         <v>13</v>
       </c>
       <c r="V2" s="9"/>
-    </row>
-    <row r="3" ht="156" spans="1:22">
+      <c r="W2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" ht="156" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <f>1+1+1</f>
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="31.8" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <f>1+1</f>
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="94.8" spans="1:24">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="94.8" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="63" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="31.2" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2866,70 +3025,76 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="46.8" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" ht="46.8" spans="1:24">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" ht="46.8" spans="1:22">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2938,106 +3103,112 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" ht="62.4" spans="1:22">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" ht="62.4" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3059,7 +3230,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="31.2" spans="4:22">
+    <row r="14" ht="46.8" spans="4:24">
       <c r="D14" s="7">
         <v>0.8</v>
       </c>
@@ -3072,507 +3243,609 @@
       </c>
       <c r="H14" s="2"/>
       <c r="M14" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="4:22">
+        <v>130</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24">
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="M15" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" ht="31.2" spans="13:22">
+        <v>143</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" ht="31.2" spans="13:24">
       <c r="M16" s="12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="13:22">
+        <v>155</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="13:24">
       <c r="M17" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="13:22">
+        <v>167</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="13:24">
       <c r="M18" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" ht="31.2" spans="13:22">
+        <v>179</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" ht="31.2" spans="13:24">
       <c r="M19" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="13:22">
+        <v>191</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="13:24">
       <c r="M20" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="13:22">
+        <v>201</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="13:24">
       <c r="M21" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>187</v>
+        <v>207</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="13:22">
+        <v>211</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="13:24">
       <c r="M22" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>195</v>
+        <v>217</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="13:22">
+        <v>221</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="13:24">
       <c r="M23" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" ht="93.6" spans="13:22">
+        <v>231</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" ht="93.6" spans="13:24">
       <c r="M24" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>209</v>
+        <v>235</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="13:22">
+        <v>240</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="13:24">
       <c r="M25" s="1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="13:22">
+        <v>246</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="13:24">
       <c r="M26" s="1" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" ht="78" spans="13:22">
+        <v>252</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" ht="78" spans="13:24">
       <c r="M27" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="13:22">
+        <v>257</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="13:24">
       <c r="M28" s="1" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="13:22">
+        <v>263</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="13:24">
       <c r="M29" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="13:22">
+        <v>269</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="13:24">
       <c r="M30" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>236</v>
+        <v>275</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="13:22">
       <c r="M31" s="1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="21:22">
       <c r="U32" s="3" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="21:22">
       <c r="U33" s="3" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="21:22">
       <c r="U34" s="3" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="21:22">
       <c r="U35" s="3" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="21:22">
       <c r="U36" s="15" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="21:22">
       <c r="U37" s="3" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="21:22">
       <c r="U38" s="3" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="21:22">
       <c r="U39" s="3" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="21:22">
       <c r="U40" s="3" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="21:22">
       <c r="U41" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:T1"/>
@@ -3583,6 +3856,7 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="E14:F14"/>

--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="问题总结" sheetId="2" r:id="rId1"/>
+    <sheet name="8.7-11" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,782 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="354">
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>词汇</t>
+  </si>
+  <si>
+    <t>长难句</t>
+  </si>
+  <si>
+    <t>注意信号词：</t>
+  </si>
+  <si>
+    <t>one of the most
+TPO19-3 2</t>
+  </si>
+  <si>
+    <t>rolling hills</t>
+  </si>
+  <si>
+    <t>起伏的群山</t>
+  </si>
+  <si>
+    <t>Different ratios in the shells preserved in various layers of sediment reveal the temperature changes in the oceans during the Pleistocene epoch.</t>
+  </si>
+  <si>
+    <t>修辞题看主旨！！！</t>
+  </si>
+  <si>
+    <t>TPO19-3 7</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>泥土</t>
+  </si>
+  <si>
+    <t>No doubt the ability to talk about one's past represents memory of a different level of complexity than simple recognition or recall.</t>
+  </si>
+  <si>
+    <t>熟悉单词的不熟悉组合，导致巨大失误！！</t>
+  </si>
+  <si>
+    <t>drift was deposited
+TPO19-3 2,6</t>
+  </si>
+  <si>
+    <t>heterogeneous</t>
+  </si>
+  <si>
+    <t>异构的，不一的</t>
+  </si>
+  <si>
+    <t>Areas rapidly incorporated into the empire were not long affected by the military. Where the army remained stationed, its presence was much more influential. The imposition of a military base involved the requisition of native lands for both the fort and the territory needed to feed and exercise the soldiers' animals.</t>
+  </si>
+  <si>
+    <t>不能一味按口诀做题，
+and 之后才是想要说的主旨，而非段落主旨</t>
+  </si>
+  <si>
+    <t>TPO21-1 4</t>
+  </si>
+  <si>
+    <t>ice caps</t>
+  </si>
+  <si>
+    <t>冰帽：覆盖在地球两极或高山顶部的大片冰层，通常由冰川和积雪组成。</t>
+  </si>
+  <si>
+    <t>The lungs of a fetus secrete a liquid that mixes with its mother's amniotic fluid. Babies with congenital blockages that prevent this fluid from escaping from their lungs are sometimes born with deformed lungs. It might be that yawning helps to clear out the lungs by periodically lowering the pressure in them.</t>
+  </si>
+  <si>
+    <t>插入题：either 一定出现在两个选项之后</t>
+  </si>
+  <si>
+    <t>TPO21-1 9</t>
+  </si>
+  <si>
+    <t>temprate</t>
+  </si>
+  <si>
+    <t>温和的</t>
+  </si>
+  <si>
+    <t>错误的插入处有前后承接，没仔细读。</t>
+  </si>
+  <si>
+    <t>TPO21-2 9</t>
+  </si>
+  <si>
+    <t>ice ages</t>
+  </si>
+  <si>
+    <t>冰河时代</t>
+  </si>
+  <si>
+    <t>读了，没读仔细，靠幻想了</t>
+  </si>
+  <si>
+    <t>TPO21-3 6</t>
+  </si>
+  <si>
+    <t>drift</t>
+  </si>
+  <si>
+    <t>漂浮物</t>
+  </si>
+  <si>
+    <t>想到看信号词了，但还是没看仔细</t>
+  </si>
+  <si>
+    <t>TPO21-3 9</t>
+  </si>
+  <si>
+    <t>radiometric dating</t>
+  </si>
+  <si>
+    <t>放射性测年法</t>
+  </si>
+  <si>
+    <t>修辞题看前后文，究竟是为谁服务的</t>
+  </si>
+  <si>
+    <t>map (gracial deposit)</t>
+  </si>
+  <si>
+    <t>绘制</t>
+  </si>
+  <si>
+    <t>句子简化题要抓主干逻辑</t>
+  </si>
+  <si>
+    <t>TPO19-2 7</t>
+  </si>
+  <si>
+    <t>glacier retreated</t>
+  </si>
+  <si>
+    <t>冰川消融</t>
+  </si>
+  <si>
+    <t>对于长句，搞清句子主体；
+信号词</t>
+  </si>
+  <si>
+    <t>much more influential
+TPO19-1 2</t>
+  </si>
+  <si>
+    <t>calcium carbonate</t>
+  </si>
+  <si>
+    <t>碳酸钙</t>
+  </si>
+  <si>
+    <t>单词不认识太致命</t>
+  </si>
+  <si>
+    <t>hereditary
+TPO19-1 6
+notorious fluctuations
+TPO18-1 7</t>
+  </si>
+  <si>
+    <t>calcite</t>
+  </si>
+  <si>
+    <t>方解石</t>
+  </si>
+  <si>
+    <t>总结题回顾笔记每段主旨</t>
+  </si>
+  <si>
+    <t>TPO19-1 10</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>遇到不熟悉单词要耐心看完</t>
+  </si>
+  <si>
+    <t>TPO 18-2 4</t>
+  </si>
+  <si>
+    <t>isotopic</t>
+  </si>
+  <si>
+    <t>同位素</t>
+  </si>
+  <si>
+    <t>在没提到和提的不全里，没提到的肯定是错的</t>
+  </si>
+  <si>
+    <t>TPO 18-2 7</t>
+  </si>
+  <si>
+    <t>shrinkage</t>
+  </si>
+  <si>
+    <t>收缩</t>
+  </si>
+  <si>
+    <t>注意看后文关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to explain xxx </t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>赤道</t>
+  </si>
+  <si>
+    <t>precipitated</t>
+  </si>
+  <si>
+    <t>沉淀</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>储藏</t>
+  </si>
+  <si>
+    <t>plate tectonics</t>
+  </si>
+  <si>
+    <t>板块构造学</t>
+  </si>
+  <si>
+    <t>fractures</t>
+  </si>
+  <si>
+    <t>破裂</t>
+  </si>
+  <si>
+    <t>seep down</t>
+  </si>
+  <si>
+    <t>渗透到下面</t>
+  </si>
+  <si>
+    <t>disposal</t>
+  </si>
+  <si>
+    <t>处理</t>
+  </si>
+  <si>
+    <t>the economy is favorable</t>
+  </si>
+  <si>
+    <t>经济形势良好</t>
+  </si>
+  <si>
+    <t>how did it come about</t>
+  </si>
+  <si>
+    <t>这是怎么发生的</t>
+  </si>
+  <si>
+    <t>more or less</t>
+  </si>
+  <si>
+    <t>或多或少</t>
+  </si>
+  <si>
+    <t>oscillated brusquely</t>
+  </si>
+  <si>
+    <t>急剧震荡</t>
+  </si>
+  <si>
+    <t>know of</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>sendentary</t>
+  </si>
+  <si>
+    <t>定栖的;不怎么动</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>当代的</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>过渡</t>
+  </si>
+  <si>
+    <t>fluidity</t>
+  </si>
+  <si>
+    <t>流动性</t>
+  </si>
+  <si>
+    <t>pastoralism</t>
+  </si>
+  <si>
+    <t>畜牧</t>
+  </si>
+  <si>
+    <t>horticulture</t>
+  </si>
+  <si>
+    <t>园艺</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contention</t>
+    </r>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>Autobiographical Memory</t>
+  </si>
+  <si>
+    <t>自传体记忆</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>充足的</t>
+  </si>
+  <si>
+    <t>lengthy</t>
+  </si>
+  <si>
+    <t>冗长</t>
+  </si>
+  <si>
+    <t>cohesive</t>
+  </si>
+  <si>
+    <t>连贯</t>
+  </si>
+  <si>
+    <t>qualitatively</t>
+  </si>
+  <si>
+    <t>本质地（显著）</t>
+  </si>
+  <si>
+    <t>verbal abilities</t>
+  </si>
+  <si>
+    <t>口头表达能力</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>相互关系</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elaboration</t>
+    </r>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>narratives</t>
+    </r>
+  </si>
+  <si>
+    <t>叙述</t>
+  </si>
+  <si>
+    <t>intertwined</t>
+  </si>
+  <si>
+    <t>交错在一起</t>
+  </si>
+  <si>
+    <t>deciduous</t>
+  </si>
+  <si>
+    <t>落叶性的</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>常年性的</t>
+  </si>
+  <si>
+    <t>intertidal</t>
+  </si>
+  <si>
+    <t>高潮线和低潮线之间的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seaweed</t>
+    </r>
+  </si>
+  <si>
+    <t>海藻</t>
+  </si>
+  <si>
+    <t>excrete</t>
+  </si>
+  <si>
+    <t>分泌</t>
+  </si>
+  <si>
+    <t>feed on</t>
+  </si>
+  <si>
+    <t>以...为食</t>
+  </si>
+  <si>
+    <t>sparrow</t>
+  </si>
+  <si>
+    <t>麻雀</t>
+  </si>
+  <si>
+    <t>offshore water</t>
+  </si>
+  <si>
+    <t>近岸</t>
+  </si>
+  <si>
+    <t>take root</t>
+  </si>
+  <si>
+    <t>生根</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>基质</t>
+  </si>
+  <si>
+    <t>cobble</t>
+  </si>
+  <si>
+    <t>鹅卵石</t>
+  </si>
+  <si>
+    <t>take up</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>入海口</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>育苗区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>brackish-water</t>
+    </r>
+  </si>
+  <si>
+    <t>半咸水</t>
+  </si>
+  <si>
+    <t>crowd out</t>
+  </si>
+  <si>
+    <t>挤出</t>
+  </si>
+  <si>
+    <t>drastically</t>
+  </si>
+  <si>
+    <t>大幅</t>
+  </si>
+  <si>
+    <t>landscape</t>
+  </si>
+  <si>
+    <t>地貌</t>
+  </si>
+  <si>
+    <t>mudflat</t>
+  </si>
+  <si>
+    <t>泥滩</t>
+  </si>
+  <si>
+    <t>inhospitable</t>
+  </si>
+  <si>
+    <t>不适宜居住的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>recreational</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>休闲</t>
+  </si>
+  <si>
+    <t>reclamation</t>
+  </si>
+  <si>
+    <t>复耕</t>
+  </si>
+  <si>
+    <t>fringe</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>smother</t>
+  </si>
+  <si>
+    <t>窒息</t>
+  </si>
+  <si>
+    <t>dredged</t>
+  </si>
+  <si>
+    <t>用挖掘机疏浚</t>
+  </si>
+  <si>
+    <t>eradication</t>
+  </si>
+  <si>
+    <t>根除</t>
+  </si>
+  <si>
+    <t>photography had been long and impatiently awaited.</t>
+  </si>
+  <si>
+    <t>人们对摄影的期待已经很长时间了。</t>
+  </si>
+  <si>
+    <t>camera obscura</t>
+  </si>
+  <si>
+    <t>针孔相机</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>透镜</t>
+  </si>
+  <si>
+    <t>ground-glass screen</t>
+  </si>
+  <si>
+    <t>毛玻璃屏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>silvered copper plate</t>
+    </r>
+  </si>
+  <si>
+    <t>银质铜板</t>
+  </si>
+  <si>
+    <t>etching</t>
+  </si>
+  <si>
+    <t>一种刻画形式</t>
+  </si>
+  <si>
+    <t>engraving</t>
+  </si>
+  <si>
+    <t>雕刻</t>
+  </si>
+  <si>
+    <t>tonal</t>
+  </si>
+  <si>
+    <t>色调</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>过时的</t>
+  </si>
+  <si>
+    <t>did away with</t>
+  </si>
+  <si>
+    <t>废除</t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>小画像，一种艺术形式</t>
+  </si>
+  <si>
+    <t>medium is prolific</t>
+  </si>
+  <si>
+    <t>媒介很多</t>
+  </si>
+  <si>
+    <t>multitude</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>destined successor</t>
+  </si>
+  <si>
+    <t>注定的继任者</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>影响；损害</t>
+  </si>
+  <si>
+    <t>unposed pictures</t>
+  </si>
+  <si>
+    <t>抓拍的照片</t>
+  </si>
+  <si>
+    <t>radical cropping</t>
+  </si>
+  <si>
+    <t>彻底的裁剪</t>
+  </si>
+  <si>
+    <t>regiment</t>
+  </si>
+  <si>
+    <t>hereditary</t>
+  </si>
+  <si>
+    <t>afield</t>
+  </si>
+  <si>
+    <t>sown</t>
+  </si>
+  <si>
+    <t>stunt</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>requisition</t>
+  </si>
+  <si>
+    <t>imposition</t>
+  </si>
+  <si>
+    <t>incorporated</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>empirical</t>
+  </si>
+  <si>
+    <t>impending</t>
+  </si>
+  <si>
+    <t>deform</t>
+  </si>
+  <si>
+    <t>blockage</t>
+  </si>
+  <si>
+    <t>congential</t>
+  </si>
+  <si>
+    <t>amniotic fluid</t>
+  </si>
+  <si>
+    <t>hiccup</t>
+  </si>
+  <si>
+    <t>fetus</t>
+  </si>
   <si>
     <t>TPO 18</t>
   </si>
@@ -54,9 +829,6 @@
     <t>Origin of Agri</t>
   </si>
   <si>
-    <t>Autobiographical Memory</t>
-  </si>
-  <si>
     <t>Spartina 22'32''</t>
   </si>
   <si>
@@ -73,11 +845,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>2+</t>
     </r>
     <r>
@@ -170,12 +937,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">对于长句，搞清句子主体；
 信号词much more influential,后文都在说更大的影响是什么
 </t>
@@ -257,7 +1018,20 @@
 8 92s</t>
   </si>
   <si>
-    <t>第一遍读没理清逻辑，导致第一题时间花的太久</t>
+    <r>
+      <t xml:space="preserve">第一遍读没理清逻辑，导致第一题时间花的太久。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很清晰的，radioactivity -&gt; heat -&gt; transfer by water (-&gt; steam) &lt;- through hot rocks</t>
+    </r>
   </si>
   <si>
     <r>
@@ -478,9 +1252,6 @@
     </r>
   </si>
   <si>
-    <t>读了，没读仔细，靠幻想了</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -533,12 +1304,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>熟悉单词的不熟悉组合，导致巨大失误！！
 drift was deposited
 漂移物的沉积！！！！
@@ -639,12 +1404,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>2+</t>
     </r>
     <r>
@@ -700,13 +1459,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">修辞题看主旨！！！
 </t>
     </r>
@@ -741,10 +1493,6 @@
     </r>
   </si>
   <si>
-    <t>不能一味按口诀做题，
-and 之后才是想要说的主旨，而非段落主旨</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -917,9 +1665,6 @@
     </r>
   </si>
   <si>
-    <t>想到看信号词了，但还是没看仔细</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1038,609 +1783,10 @@
     <t>23-26</t>
   </si>
   <si>
-    <t>rolling hills</t>
-  </si>
-  <si>
-    <t>起伏的群山</t>
-  </si>
-  <si>
-    <t>reservoir</t>
-  </si>
-  <si>
-    <t>储藏</t>
-  </si>
-  <si>
-    <t>how did it come about</t>
-  </si>
-  <si>
-    <t>这是怎么发生的</t>
-  </si>
-  <si>
-    <t>自传体记忆</t>
-  </si>
-  <si>
-    <t>deciduous</t>
-  </si>
-  <si>
-    <t>落叶性的</t>
-  </si>
-  <si>
-    <t>photography had been long and impatiently awaited.</t>
-  </si>
-  <si>
-    <t>人们对摄影的期待已经很长时间了。</t>
-  </si>
-  <si>
     <t>26-29</t>
   </si>
   <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>泥土</t>
-  </si>
-  <si>
-    <t>plate tectonics</t>
-  </si>
-  <si>
-    <t>板块构造学</t>
-  </si>
-  <si>
-    <t>more or less</t>
-  </si>
-  <si>
-    <t>或多或少</t>
-  </si>
-  <si>
-    <t>ample</t>
-  </si>
-  <si>
-    <t>充足的</t>
-  </si>
-  <si>
-    <t>perennial</t>
-  </si>
-  <si>
-    <t>常年性的</t>
-  </si>
-  <si>
-    <t>camera obscura</t>
-  </si>
-  <si>
-    <t>针孔相机</t>
-  </si>
-  <si>
-    <t>heterogeneous</t>
-  </si>
-  <si>
-    <t>异构的，不一的</t>
-  </si>
-  <si>
-    <t>fractures</t>
-  </si>
-  <si>
-    <t>破裂</t>
-  </si>
-  <si>
-    <t>oscillated brusquely</t>
-  </si>
-  <si>
-    <t>急剧震荡</t>
-  </si>
-  <si>
-    <t>lengthy</t>
-  </si>
-  <si>
-    <t>冗长</t>
-  </si>
-  <si>
-    <t>intertidal</t>
-  </si>
-  <si>
-    <t>高潮线和低潮线之间的</t>
-  </si>
-  <si>
-    <t>lens</t>
-  </si>
-  <si>
-    <t>透镜</t>
-  </si>
-  <si>
-    <t>ice caps</t>
-  </si>
-  <si>
-    <t>冰帽：覆盖在地球两极或高山顶部的大片冰层，通常由冰川和积雪组成。</t>
-  </si>
-  <si>
-    <t>seep down</t>
-  </si>
-  <si>
-    <t>渗透到下面</t>
-  </si>
-  <si>
-    <t>know of</t>
-  </si>
-  <si>
-    <t>了解</t>
-  </si>
-  <si>
-    <t>cohesive</t>
-  </si>
-  <si>
-    <t>连贯</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seaweed</t>
-    </r>
-  </si>
-  <si>
-    <t>海藻</t>
-  </si>
-  <si>
-    <t>ground-glass screen</t>
-  </si>
-  <si>
-    <t>毛玻璃屏</t>
-  </si>
-  <si>
-    <t>temprate</t>
-  </si>
-  <si>
-    <t>温和的</t>
-  </si>
-  <si>
-    <t>disposal</t>
-  </si>
-  <si>
-    <t>处理</t>
-  </si>
-  <si>
-    <t>sendentary</t>
-  </si>
-  <si>
     <t>定栖的</t>
-  </si>
-  <si>
-    <t>qualitatively</t>
-  </si>
-  <si>
-    <t>本质地（显著）</t>
-  </si>
-  <si>
-    <t>excrete</t>
-  </si>
-  <si>
-    <t>分泌</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>silvered copper plate</t>
-    </r>
-  </si>
-  <si>
-    <t>银质铜板</t>
-  </si>
-  <si>
-    <t>ice ages</t>
-  </si>
-  <si>
-    <t>冰河时代</t>
-  </si>
-  <si>
-    <t>the economy is favorable</t>
-  </si>
-  <si>
-    <t>经济形势良好</t>
-  </si>
-  <si>
-    <t>contemporary</t>
-  </si>
-  <si>
-    <t>当代的</t>
-  </si>
-  <si>
-    <t>verbal abilities</t>
-  </si>
-  <si>
-    <t>口头表达能力</t>
-  </si>
-  <si>
-    <t>feed on</t>
-  </si>
-  <si>
-    <t>以...为食</t>
-  </si>
-  <si>
-    <t>etching</t>
-  </si>
-  <si>
-    <t>一种刻画形式</t>
-  </si>
-  <si>
-    <t>drift</t>
-  </si>
-  <si>
-    <t>漂浮物</t>
-  </si>
-  <si>
-    <t>transition</t>
-  </si>
-  <si>
-    <t>过渡</t>
-  </si>
-  <si>
-    <t>correlation</t>
-  </si>
-  <si>
-    <t>相互关系</t>
-  </si>
-  <si>
-    <t>sparrow</t>
-  </si>
-  <si>
-    <t>麻雀</t>
-  </si>
-  <si>
-    <t>engraving</t>
-  </si>
-  <si>
-    <t>雕刻</t>
-  </si>
-  <si>
-    <t>radiometric dating</t>
-  </si>
-  <si>
-    <t>放射性测年法</t>
-  </si>
-  <si>
-    <t>fluidity</t>
-  </si>
-  <si>
-    <t>流动性</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>elaboration</t>
-    </r>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>offshore water</t>
-  </si>
-  <si>
-    <t>近岸</t>
-  </si>
-  <si>
-    <t>tonal</t>
-  </si>
-  <si>
-    <t>色调</t>
-  </si>
-  <si>
-    <t>map (gracial deposit)</t>
-  </si>
-  <si>
-    <t>绘制</t>
-  </si>
-  <si>
-    <t>pastoralism</t>
-  </si>
-  <si>
-    <t>畜牧</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>narratives</t>
-    </r>
-  </si>
-  <si>
-    <t>叙述</t>
-  </si>
-  <si>
-    <t>take root</t>
-  </si>
-  <si>
-    <t>生根</t>
-  </si>
-  <si>
-    <t>obsolete</t>
-  </si>
-  <si>
-    <t>过时的</t>
-  </si>
-  <si>
-    <t>glacier retreated</t>
-  </si>
-  <si>
-    <t>冰川消融</t>
-  </si>
-  <si>
-    <t>horticulture</t>
-  </si>
-  <si>
-    <t>园艺</t>
-  </si>
-  <si>
-    <t>intertwined</t>
-  </si>
-  <si>
-    <t>交错在一起</t>
-  </si>
-  <si>
-    <t>substrate</t>
-  </si>
-  <si>
-    <t>基质</t>
-  </si>
-  <si>
-    <t>did away with</t>
-  </si>
-  <si>
-    <t>废除</t>
-  </si>
-  <si>
-    <t>calcium carbonate</t>
-  </si>
-  <si>
-    <t>碳酸钙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>contention</t>
-    </r>
-  </si>
-  <si>
-    <t>debate</t>
-  </si>
-  <si>
-    <t>No doubt the ability to talk about one's past represents memory of a different level of complexity than simple recognition or recall.</t>
-  </si>
-  <si>
-    <t>cobble</t>
-  </si>
-  <si>
-    <t>鹅卵石</t>
-  </si>
-  <si>
-    <t>miniature</t>
-  </si>
-  <si>
-    <t>小画像，一种艺术形式</t>
-  </si>
-  <si>
-    <t>calcite</t>
-  </si>
-  <si>
-    <t>方解石</t>
-  </si>
-  <si>
-    <t>take up</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>medium is prolific</t>
-  </si>
-  <si>
-    <t>媒介很多</t>
-  </si>
-  <si>
-    <t>preserve</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>estuary</t>
-  </si>
-  <si>
-    <t>入海口</t>
-  </si>
-  <si>
-    <t>multitude</t>
-  </si>
-  <si>
-    <t>很多</t>
-  </si>
-  <si>
-    <t>Different ratios in the shells preserved in various layers of sediment reveal the temperature changes in the oceans during the Pleistocene epoch.</t>
-  </si>
-  <si>
-    <t>take over</t>
-  </si>
-  <si>
-    <t>接管</t>
-  </si>
-  <si>
-    <t>destined successor</t>
-  </si>
-  <si>
-    <t>注定的继任者</t>
-  </si>
-  <si>
-    <t>isotopic</t>
-  </si>
-  <si>
-    <t>同位素</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>海拔</t>
-  </si>
-  <si>
-    <t>compromise</t>
-  </si>
-  <si>
-    <t>影响；损害</t>
-  </si>
-  <si>
-    <t>shrinkage</t>
-  </si>
-  <si>
-    <t>收缩</t>
-  </si>
-  <si>
-    <t>nursery</t>
-  </si>
-  <si>
-    <t>育苗区</t>
-  </si>
-  <si>
-    <t>unposed pictures</t>
-  </si>
-  <si>
-    <t>抓拍的照片</t>
-  </si>
-  <si>
-    <t>equator</t>
-  </si>
-  <si>
-    <t>赤道</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>brackish-water</t>
-    </r>
-  </si>
-  <si>
-    <t>半咸水</t>
-  </si>
-  <si>
-    <t>radical cropping</t>
-  </si>
-  <si>
-    <t>彻底的裁剪</t>
-  </si>
-  <si>
-    <t>precipitated</t>
-  </si>
-  <si>
-    <t>沉淀</t>
-  </si>
-  <si>
-    <t>crowd out</t>
-  </si>
-  <si>
-    <t>挤出</t>
-  </si>
-  <si>
-    <t>drastically</t>
-  </si>
-  <si>
-    <t>大幅</t>
-  </si>
-  <si>
-    <t>landscape</t>
-  </si>
-  <si>
-    <t>地貌</t>
-  </si>
-  <si>
-    <t>mudflat</t>
-  </si>
-  <si>
-    <t>泥滩</t>
-  </si>
-  <si>
-    <t>inhospitable</t>
-  </si>
-  <si>
-    <t>不适宜居住的</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>recreational</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>休闲</t>
-  </si>
-  <si>
-    <t>reclamation</t>
-  </si>
-  <si>
-    <t>复耕</t>
-  </si>
-  <si>
-    <t>fringe</t>
-  </si>
-  <si>
-    <t>边缘</t>
-  </si>
-  <si>
-    <t>smother</t>
-  </si>
-  <si>
-    <t>窒息</t>
-  </si>
-  <si>
-    <t>dredged</t>
-  </si>
-  <si>
-    <t>用挖掘机疏浚</t>
-  </si>
-  <si>
-    <t>eradication</t>
-  </si>
-  <si>
-    <t>根除</t>
   </si>
 </sst>
 </file>
@@ -1861,12 +2007,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2055,12 +2207,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2169,10 +2362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2181,16 +2374,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2202,10 +2395,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2220,55 +2413,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2280,91 +2470,157 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2714,1134 +2970,2092 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="39.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9" style="26"/>
+    <col min="4" max="4" width="29.875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="34.625" style="25" customWidth="1"/>
+    <col min="6" max="8" width="9" style="26"/>
+    <col min="9" max="9" width="49.875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9" style="25"/>
+    <col min="11" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" ht="49.5" spans="1:9">
+      <c r="A2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:9">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="115.5" spans="1:9">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="99" spans="1:9">
+      <c r="A5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="1:5">
+      <c r="A12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="66" spans="1:5">
+      <c r="A13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" ht="33" spans="4:5">
+      <c r="D74" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.7777777777778" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="49.3333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5555555555556" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="48.4444444444444" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.2222222222222" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.4444444444444" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="36.4444444444444" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1111111111111" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.4444444444444" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5555555555556" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1111111111111" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1296296296296" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.6851851851852" style="3" customWidth="1"/>
-    <col min="23" max="23" width="23.0092592592593" style="3" customWidth="1"/>
-    <col min="24" max="24" width="20.787037037037" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21.775" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3333333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5583333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="48.4416666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1083333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.225" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.4416666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.4416666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1083333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.4416666666667" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5583333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1083333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1333333333333" style="4" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6833333333333" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="23.0083333333333" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7833333333333" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.825" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="O1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="4:24">
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9"/>
+      <c r="D2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="9"/>
-    </row>
-    <row r="3" ht="156" spans="1:24">
+        <v>243</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="X2" s="13"/>
+    </row>
+    <row r="3" ht="165" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
+        <v>250</v>
+      </c>
+      <c r="D3" s="3">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" ht="31.8" spans="1:22">
+      <c r="E3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
+        <v>269</v>
+      </c>
+      <c r="D4" s="3">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" ht="94.8" spans="1:24">
+      <c r="H4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
+        <v>278</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:20">
+      <c r="H5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" ht="49.5" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>287</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="31.2" spans="1:24">
+        <v>293</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1">
+        <v>301</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
+      <c r="F7" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>76</v>
+        <v>304</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" ht="46.8" spans="1:18">
+        <v>309</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" ht="49.5" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1">
+        <v>313</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
+      <c r="F9" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" ht="46.8" spans="1:24">
+        <v>315</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" ht="49.5" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1">
+        <v>320</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>91</v>
+      <c r="F10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>102</v>
+        <v>325</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" ht="62.4" spans="1:24">
+        <v>334</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" ht="66" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1">
+        <v>338</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>113</v>
+      <c r="F12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>120</v>
+        <v>345</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2">
+      <c r="O13" s="7">
         <v>-10</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" ht="46.8" spans="4:24">
-      <c r="D14" s="7">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" ht="49.5" spans="4:24">
+      <c r="D14" s="11">
         <v>0.8</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>0.8</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>0.9</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="7"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="V14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="W14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24">
+      <c r="D15" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="M15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="13:24">
+      <c r="M16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="V16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="4:24">
-      <c r="D15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="M15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" ht="31.2" spans="13:24">
-      <c r="M16" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>157</v>
+      <c r="W16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="13:24">
       <c r="M17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>169</v>
+        <v>20</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="13:24">
       <c r="M18" s="1" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" ht="31.2" spans="13:24">
+        <v>26</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" ht="33" spans="13:24">
       <c r="M19" s="1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="W19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="13:24">
       <c r="M20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="X20" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="13:24">
       <c r="M21" s="1" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>213</v>
+        <v>38</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="13:24">
       <c r="M22" s="1" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>223</v>
+        <v>41</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="13:24">
       <c r="M23" s="1" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" ht="93.6" spans="13:24">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" ht="82.5" spans="13:24">
       <c r="M24" s="1" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>242</v>
+        <v>49</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="13:24">
       <c r="M25" s="1" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>248</v>
+        <v>53</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="13:24">
       <c r="M26" s="1" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" ht="78" spans="13:24">
-      <c r="M27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" ht="66" spans="13:24">
+      <c r="M27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="13:24">
       <c r="M28" s="1" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>265</v>
+        <v>61</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="13:24">
       <c r="M29" s="1" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>271</v>
+        <v>65</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="13:24">
       <c r="M30" s="1" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>277</v>
+        <v>69</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="13:22">
       <c r="M31" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>281</v>
+        <v>70</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="21:22">
-      <c r="U32" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>283</v>
+      <c r="U32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="21:22">
-      <c r="U33" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>285</v>
+      <c r="U33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="21:22">
-      <c r="U34" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>287</v>
+      <c r="U34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="21:22">
-      <c r="U35" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>289</v>
+      <c r="U35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="21:22">
-      <c r="U36" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>291</v>
+      <c r="U36" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="21:22">
-      <c r="U37" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>293</v>
+      <c r="U37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="21:22">
-      <c r="U38" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>295</v>
+      <c r="U38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="21:22">
-      <c r="U39" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>297</v>
+      <c r="U39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="21:22">
-      <c r="U40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>299</v>
+      <c r="U40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="21:22">
-      <c r="U41" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>301</v>
+      <c r="U41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3871,23 +5085,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3897,7 +5094,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="28110" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
     <sheet name="8.7-11" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="8.15" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="478">
   <si>
     <t>问题</t>
   </si>
@@ -338,6 +338,60 @@
     <t>园艺</t>
   </si>
   <si>
+    <t>contention</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>Autobiographical Memory</t>
+  </si>
+  <si>
+    <t>自传体记忆</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>充足的</t>
+  </si>
+  <si>
+    <t>lengthy</t>
+  </si>
+  <si>
+    <t>冗长</t>
+  </si>
+  <si>
+    <t>cohesive</t>
+  </si>
+  <si>
+    <t>连贯</t>
+  </si>
+  <si>
+    <t>qualitatively</t>
+  </si>
+  <si>
+    <t>本质地（显著）</t>
+  </si>
+  <si>
+    <t>verbal abilities</t>
+  </si>
+  <si>
+    <t>口头表达能力</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>相互关系</t>
+  </si>
+  <si>
+    <t>elaboration</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -345,53 +399,35 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>contention</t>
-    </r>
-  </si>
-  <si>
-    <t>debate</t>
-  </si>
-  <si>
-    <t>Autobiographical Memory</t>
-  </si>
-  <si>
-    <t>自传体记忆</t>
-  </si>
-  <si>
-    <t>ample</t>
-  </si>
-  <si>
-    <t>充足的</t>
-  </si>
-  <si>
-    <t>lengthy</t>
-  </si>
-  <si>
-    <t>冗长</t>
-  </si>
-  <si>
-    <t>cohesive</t>
-  </si>
-  <si>
-    <t>连贯</t>
-  </si>
-  <si>
-    <t>qualitatively</t>
-  </si>
-  <si>
-    <t>本质地（显著）</t>
-  </si>
-  <si>
-    <t>verbal abilities</t>
-  </si>
-  <si>
-    <t>口头表达能力</t>
-  </si>
-  <si>
-    <t>correlation</t>
-  </si>
-  <si>
-    <t>相互关系</t>
+      <t>narratives</t>
+    </r>
+  </si>
+  <si>
+    <t>叙述</t>
+  </si>
+  <si>
+    <t>intertwined</t>
+  </si>
+  <si>
+    <t>交错在一起</t>
+  </si>
+  <si>
+    <t>deciduous</t>
+  </si>
+  <si>
+    <t>落叶性的</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>常年性的</t>
+  </si>
+  <si>
+    <t>intertidal</t>
+  </si>
+  <si>
+    <t>高潮线和低潮线之间的</t>
   </si>
   <si>
     <r>
@@ -401,11 +437,83 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>elaboration</t>
-    </r>
-  </si>
-  <si>
-    <t>development</t>
+      <t>seaweed</t>
+    </r>
+  </si>
+  <si>
+    <t>海藻</t>
+  </si>
+  <si>
+    <t>excrete</t>
+  </si>
+  <si>
+    <t>分泌</t>
+  </si>
+  <si>
+    <t>feed on</t>
+  </si>
+  <si>
+    <t>以...为食</t>
+  </si>
+  <si>
+    <t>sparrow</t>
+  </si>
+  <si>
+    <t>麻雀</t>
+  </si>
+  <si>
+    <t>offshore water</t>
+  </si>
+  <si>
+    <t>近岸</t>
+  </si>
+  <si>
+    <t>take root</t>
+  </si>
+  <si>
+    <t>生根</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>基质</t>
+  </si>
+  <si>
+    <t>cobble</t>
+  </si>
+  <si>
+    <t>鹅卵石</t>
+  </si>
+  <si>
+    <t>take up</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>入海口</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>育苗区</t>
   </si>
   <si>
     <r>
@@ -415,35 +523,41 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>narratives</t>
-    </r>
-  </si>
-  <si>
-    <t>叙述</t>
-  </si>
-  <si>
-    <t>intertwined</t>
-  </si>
-  <si>
-    <t>交错在一起</t>
-  </si>
-  <si>
-    <t>deciduous</t>
-  </si>
-  <si>
-    <t>落叶性的</t>
-  </si>
-  <si>
-    <t>perennial</t>
-  </si>
-  <si>
-    <t>常年性的</t>
-  </si>
-  <si>
-    <t>intertidal</t>
-  </si>
-  <si>
-    <t>高潮线和低潮线之间的</t>
+      <t>brackish-water</t>
+    </r>
+  </si>
+  <si>
+    <t>半咸水</t>
+  </si>
+  <si>
+    <t>crowd out</t>
+  </si>
+  <si>
+    <t>挤出</t>
+  </si>
+  <si>
+    <t>drastically</t>
+  </si>
+  <si>
+    <t>大幅</t>
+  </si>
+  <si>
+    <t>landscape</t>
+  </si>
+  <si>
+    <t>地貌</t>
+  </si>
+  <si>
+    <t>mudflat</t>
+  </si>
+  <si>
+    <t>泥滩</t>
+  </si>
+  <si>
+    <t>inhospitable</t>
+  </si>
+  <si>
+    <t>不适宜居住的</t>
   </si>
   <si>
     <r>
@@ -453,85 +567,8 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>seaweed</t>
-    </r>
-  </si>
-  <si>
-    <t>海藻</t>
-  </si>
-  <si>
-    <t>excrete</t>
-  </si>
-  <si>
-    <t>分泌</t>
-  </si>
-  <si>
-    <t>feed on</t>
-  </si>
-  <si>
-    <t>以...为食</t>
-  </si>
-  <si>
-    <t>sparrow</t>
-  </si>
-  <si>
-    <t>麻雀</t>
-  </si>
-  <si>
-    <t>offshore water</t>
-  </si>
-  <si>
-    <t>近岸</t>
-  </si>
-  <si>
-    <t>take root</t>
-  </si>
-  <si>
-    <t>生根</t>
-  </si>
-  <si>
-    <t>substrate</t>
-  </si>
-  <si>
-    <t>基质</t>
-  </si>
-  <si>
-    <t>cobble</t>
-  </si>
-  <si>
-    <t>鹅卵石</t>
-  </si>
-  <si>
-    <t>take up</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>estuary</t>
-  </si>
-  <si>
-    <t>入海口</t>
-  </si>
-  <si>
-    <t>take over</t>
-  </si>
-  <si>
-    <t>接管</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>海拔</t>
-  </si>
-  <si>
-    <t>nursery</t>
-  </si>
-  <si>
-    <t>育苗区</t>
-  </si>
-  <si>
+      <t>recreational</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -539,41 +576,65 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>brackish-water</t>
-    </r>
-  </si>
-  <si>
-    <t>半咸水</t>
-  </si>
-  <si>
-    <t>crowd out</t>
-  </si>
-  <si>
-    <t>挤出</t>
-  </si>
-  <si>
-    <t>drastically</t>
-  </si>
-  <si>
-    <t>大幅</t>
-  </si>
-  <si>
-    <t>landscape</t>
-  </si>
-  <si>
-    <t>地貌</t>
-  </si>
-  <si>
-    <t>mudflat</t>
-  </si>
-  <si>
-    <t>泥滩</t>
-  </si>
-  <si>
-    <t>inhospitable</t>
-  </si>
-  <si>
-    <t>不适宜居住的</t>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>休闲</t>
+  </si>
+  <si>
+    <t>reclamation</t>
+  </si>
+  <si>
+    <t>复耕</t>
+  </si>
+  <si>
+    <t>fringe</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>smother</t>
+  </si>
+  <si>
+    <t>窒息</t>
+  </si>
+  <si>
+    <t>dredged</t>
+  </si>
+  <si>
+    <t>用挖掘机疏浚</t>
+  </si>
+  <si>
+    <t>eradication</t>
+  </si>
+  <si>
+    <t>根除</t>
+  </si>
+  <si>
+    <t>photography had been long and impatiently awaited.</t>
+  </si>
+  <si>
+    <t>人们对摄影的期待已经很长时间了。</t>
+  </si>
+  <si>
+    <t>camera obscura</t>
+  </si>
+  <si>
+    <t>针孔相机</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>透镜</t>
+  </si>
+  <si>
+    <t>ground-glass screen</t>
+  </si>
+  <si>
+    <t>毛玻璃屏</t>
   </si>
   <si>
     <r>
@@ -583,83 +644,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>recreational</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>休闲</t>
-  </si>
-  <si>
-    <t>reclamation</t>
-  </si>
-  <si>
-    <t>复耕</t>
-  </si>
-  <si>
-    <t>fringe</t>
-  </si>
-  <si>
-    <t>边缘</t>
-  </si>
-  <si>
-    <t>smother</t>
-  </si>
-  <si>
-    <t>窒息</t>
-  </si>
-  <si>
-    <t>dredged</t>
-  </si>
-  <si>
-    <t>用挖掘机疏浚</t>
-  </si>
-  <si>
-    <t>eradication</t>
-  </si>
-  <si>
-    <t>根除</t>
-  </si>
-  <si>
-    <t>photography had been long and impatiently awaited.</t>
-  </si>
-  <si>
-    <t>人们对摄影的期待已经很长时间了。</t>
-  </si>
-  <si>
-    <t>camera obscura</t>
-  </si>
-  <si>
-    <t>针孔相机</t>
-  </si>
-  <si>
-    <t>lens</t>
-  </si>
-  <si>
-    <t>透镜</t>
-  </si>
-  <si>
-    <t>ground-glass screen</t>
-  </si>
-  <si>
-    <t>毛玻璃屏</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>silvered copper plate</t>
     </r>
   </si>
@@ -742,57 +726,111 @@
     <t>regiment</t>
   </si>
   <si>
+    <t>（军队的）团</t>
+  </si>
+  <si>
     <t>hereditary</t>
   </si>
   <si>
+    <t>世袭</t>
+  </si>
+  <si>
     <t>afield</t>
   </si>
   <si>
+    <t>在远方地</t>
+  </si>
+  <si>
     <t>sown</t>
   </si>
   <si>
+    <t>播种</t>
+  </si>
+  <si>
     <t>stunt</t>
   </si>
   <si>
+    <t>作秀</t>
+  </si>
+  <si>
     <t>fort</t>
   </si>
   <si>
+    <t>堡垒</t>
+  </si>
+  <si>
     <t>requisition</t>
   </si>
   <si>
+    <t>征用</t>
+  </si>
+  <si>
     <t>imposition</t>
   </si>
   <si>
+    <t>实施</t>
+  </si>
+  <si>
     <t>incorporated</t>
   </si>
   <si>
+    <t>合并；纳入</t>
+  </si>
+  <si>
     <t>fluctuation</t>
   </si>
   <si>
+    <t>不稳定；波动</t>
+  </si>
+  <si>
     <t>empirical</t>
   </si>
   <si>
+    <t>经验主义的</t>
+  </si>
+  <si>
     <t>impending</t>
   </si>
   <si>
+    <t>即将来的</t>
+  </si>
+  <si>
     <t>deform</t>
   </si>
   <si>
+    <t>变形的</t>
+  </si>
+  <si>
     <t>blockage</t>
   </si>
   <si>
+    <t>堵塞物</t>
+  </si>
+  <si>
     <t>congential</t>
   </si>
   <si>
+    <t>先天性的</t>
+  </si>
+  <si>
     <t>amniotic fluid</t>
   </si>
   <si>
+    <t>羊水</t>
+  </si>
+  <si>
     <t>hiccup</t>
   </si>
   <si>
+    <t>打嗝</t>
+  </si>
+  <si>
     <t>fetus</t>
   </si>
   <si>
+    <t>胎儿</t>
+  </si>
+  <si>
     <t>TPO 18</t>
   </si>
   <si>
@@ -845,6 +883,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2+</t>
     </r>
     <r>
@@ -937,6 +980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">对于长句，搞清句子主体；
 信号词much more influential,后文都在说更大的影响是什么
 </t>
@@ -1019,6 +1068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">第一遍读没理清逻辑，导致第一题时间花的太久。
 </t>
     </r>
@@ -1304,6 +1359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>熟悉单词的不熟悉组合，导致巨大失误！！
 drift was deposited
 漂移物的沉积！！！！
@@ -1404,6 +1465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2+</t>
     </r>
     <r>
@@ -1459,6 +1526,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">修辞题看主旨！！！
 </t>
     </r>
@@ -1787,6 +1861,461 @@
   </si>
   <si>
     <t>定栖的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elaboration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contention</t>
+    </r>
+  </si>
+  <si>
+    <t>TPO 23</t>
+  </si>
+  <si>
+    <t>Allende Meteorite 20'3''</t>
+  </si>
+  <si>
+    <t>Seventieth Century Dutch Agri- 22'55''</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5 注意对某一名词的解释，可能出现在题目中。
+are held together by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chondrite matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mixture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of fine-grained, mostly silicate minerals
+mixture在题目中出现</t>
+    </r>
+  </si>
+  <si>
+    <t>3 90s
+5 133s
+7 36s
+8 95s</t>
+  </si>
+  <si>
+    <t>单词没理解，crop rotation 轮耕;
+又开始幻想了，注意句子的前后关系，说到xxx was suitable for reclamination，但没说原因，后面的investment就是解释这个suitable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 54s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 177s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 140s</t>
+    </r>
+  </si>
+  <si>
+    <t>4 52s</t>
+  </si>
+  <si>
+    <t>agriculture sector对应commercial venture</t>
+  </si>
+  <si>
+    <t>4 89s</t>
+  </si>
+  <si>
+    <t>2 97s</t>
+  </si>
+  <si>
+    <t>and 前后并列，此处没有解释的意思。同时错选项意思完全不同！just calm down to read</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 106s
+</t>
+    </r>
+  </si>
+  <si>
+    <t>6 29s</t>
+  </si>
+  <si>
+    <t>1 12s</t>
+  </si>
+  <si>
+    <t>在想什么啊！consumption!!</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 14s</t>
+    </r>
+  </si>
+  <si>
+    <t>6 20s</t>
+  </si>
+  <si>
+    <t>9 40s</t>
+  </si>
+  <si>
+    <t>9 34s</t>
+  </si>
+  <si>
+    <t>8 42s</t>
+  </si>
+  <si>
+    <t>10 125s</t>
+  </si>
+  <si>
+    <t>主旨对，细节略微有点没提到是可以接受的</t>
+  </si>
+  <si>
+    <t>10 185s</t>
+  </si>
+  <si>
+    <t>plummeted </t>
+  </si>
+  <si>
+    <t>直线下降</t>
+  </si>
+  <si>
+    <t>crop rotation</t>
+  </si>
+  <si>
+    <t>轮耕</t>
+  </si>
+  <si>
+    <t>bear the name</t>
+  </si>
+  <si>
+    <t>以...命名</t>
+  </si>
+  <si>
+    <t>foodstuff</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>allusion</t>
+  </si>
+  <si>
+    <t>典故；影射</t>
+  </si>
+  <si>
+    <t>fodder crop</t>
+  </si>
+  <si>
+    <t>饲料作物</t>
+  </si>
+  <si>
+    <t>chondrules</t>
+  </si>
+  <si>
+    <t>陨石球粒</t>
+  </si>
+  <si>
+    <t>flax</t>
+  </si>
+  <si>
+    <t>亚麻</t>
+  </si>
+  <si>
+    <t>droplet</t>
+  </si>
+  <si>
+    <t>滴</t>
+  </si>
+  <si>
+    <t>rape</t>
+  </si>
+  <si>
+    <t>油菜；强奸</t>
+  </si>
+  <si>
+    <t>silicate</t>
+  </si>
+  <si>
+    <t>硅酸盐</t>
+  </si>
+  <si>
+    <t>husbandry</t>
+  </si>
+  <si>
+    <t>畜牧业</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>颗粒</t>
+  </si>
+  <si>
+    <t>enigmatic</t>
+  </si>
+  <si>
+    <t>神秘的</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>租赁</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>融化；融合</t>
+  </si>
+  <si>
+    <t>开垦的土地</t>
+  </si>
+  <si>
+    <t>perplexing</t>
+  </si>
+  <si>
+    <t>复杂的</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>关键的</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>成分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>industrial crops</t>
+    </r>
+  </si>
+  <si>
+    <t>工业作物</t>
+  </si>
+  <si>
+    <t>refractory</t>
+  </si>
+  <si>
+    <t>耐热的</t>
+  </si>
+  <si>
+    <t>overtaken</t>
+  </si>
+  <si>
+    <t>赶超</t>
+  </si>
+  <si>
+    <t>inclusion</t>
+  </si>
+  <si>
+    <t>内含物</t>
+  </si>
+  <si>
+    <t>freed</t>
+  </si>
+  <si>
+    <t>释放</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>钛</t>
+  </si>
+  <si>
+    <t>condensation</t>
+  </si>
+  <si>
+    <t>冷凝</t>
+  </si>
+  <si>
+    <t>fine-grained</t>
+  </si>
+  <si>
+    <t>细颗粒</t>
+  </si>
+  <si>
+    <t>pristine</t>
+  </si>
+  <si>
+    <t>原始的</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>聚合</t>
+  </si>
+  <si>
+    <t>comparable</t>
+  </si>
+  <si>
+    <t>相似的</t>
+  </si>
+  <si>
+    <t>striking</t>
+  </si>
+  <si>
+    <t>惊人的</t>
+  </si>
+  <si>
+    <t>depleted</t>
+  </si>
+  <si>
+    <t>缺乏的</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>挥发性的</t>
+  </si>
+  <si>
+    <t>distilled</t>
+  </si>
+  <si>
+    <t>净化的；蒸馏的</t>
+  </si>
+  <si>
+    <t>sludge</t>
+  </si>
+  <si>
+    <t>沉淀物</t>
+  </si>
+  <si>
+    <t>reside</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>lump</t>
+  </si>
+  <si>
+    <t>肿块；团块</t>
+  </si>
+  <si>
+    <t>assortment</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>interstellar</t>
+  </si>
+  <si>
+    <t>星际</t>
+  </si>
+  <si>
+    <t>A few chondrules contain grains that survived the melting event, so these enigmatic chondrules must have formed when compact masses of nebular dust were fused at high temperatures—approaching 1,700 degrees Celsius—and then cooled before these surviving grains could melt. </t>
   </si>
 </sst>
 </file>
@@ -1799,7 +2328,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,13 +2344,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1832,27 +2379,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <sz val="10.5"/>
+      <color rgb="FF2A2B2E"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF2A2B2E"/>
-      <name val="微软雅黑"/>
+      <name val="Gilroy"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF2A2B2E"/>
-      <name val="Gilroy"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2362,10 +2903,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2374,37 +2915,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2413,156 +2948,210 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2571,17 +3160,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2589,37 +3175,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2972,944 +3555,998 @@
   <sheetPr/>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9" style="26"/>
-    <col min="4" max="4" width="29.875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="25" customWidth="1"/>
-    <col min="6" max="8" width="9" style="26"/>
-    <col min="9" max="9" width="49.875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9" style="25"/>
-    <col min="11" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="39.3833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="41"/>
+    <col min="4" max="4" width="29.8833333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.6333333333333" style="5" customWidth="1"/>
+    <col min="6" max="8" width="9" style="41"/>
+    <col min="9" max="9" width="49.8833333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="E1" s="13"/>
+      <c r="I1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" ht="49.5" spans="1:9">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="49.5" spans="1:9">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="115.5" spans="1:9">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="99" spans="1:9">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" ht="33" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="66" spans="1:5">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="36" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="36" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="36" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="4:5">
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="4:5">
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="4:5">
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="4:5">
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" spans="4:5">
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="65" spans="4:5">
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="74" ht="33" spans="4:5">
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="79" spans="4:5">
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84" spans="4:5">
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="86" spans="4:5">
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="25" t="s">
+    <row r="91" spans="4:5">
+      <c r="D91" s="45" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="25" t="s">
+      <c r="E91" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="25" t="s">
+    <row r="92" spans="4:5">
+      <c r="D92" s="45" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="25" t="s">
+      <c r="E92" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="25" t="s">
+    <row r="93" spans="4:5">
+      <c r="D93" s="45" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="25" t="s">
+      <c r="E93" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="25" t="s">
+    <row r="94" spans="4:5">
+      <c r="D94" s="45" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="25" t="s">
+      <c r="E94" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="25" t="s">
+    <row r="95" spans="4:5">
+      <c r="D95" s="45" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="25" t="s">
+      <c r="E95" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="25" t="s">
+    <row r="96" spans="4:5">
+      <c r="D96" s="45" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="25" t="s">
+      <c r="E96" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="25" t="s">
+    <row r="97" spans="4:5">
+      <c r="D97" s="45" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="25" t="s">
+      <c r="E97" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="25" t="s">
+    <row r="98" spans="4:5">
+      <c r="D98" s="45" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="25" t="s">
+      <c r="E98" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="25" t="s">
+    <row r="99" spans="4:5">
+      <c r="D99" s="45" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="25" t="s">
+      <c r="E99" s="5" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3928,1133 +4565,1133 @@
   <sheetPr/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.775" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="49.3333333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5583333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="48.4416666666667" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1083333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.225" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.4416666666667" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="36.4416666666667" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1083333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.4416666666667" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5583333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1083333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1333333333333" style="4" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6833333333333" style="5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="23.0083333333333" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="20.7833333333333" style="5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.825" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="6" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="21.775" style="23" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3333333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5583333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="48.4416666666667" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1083333333333" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.225" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.4416666666667" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.4416666666667" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1083333333333" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.4416666666667" style="23" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5583333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1083333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="24" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1333333333333" style="24" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6833333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="23.0083333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7833333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7" style="4" customWidth="1"/>
+    <col min="26" max="26" width="23.825" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
-      <c r="D1" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="D1" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="4:24">
-      <c r="D2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="20" t="s">
+      <c r="D2" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="X2" s="13"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" ht="165" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>248</v>
+      <c r="A3" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="3">
+        <v>267</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="23">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>267</v>
+      <c r="E3" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" ht="33" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="23">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="H4" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="S4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>276</v>
+      <c r="T4" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:24">
-      <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>285</v>
+      <c r="H5" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6" ht="49.5" spans="1:20">
-      <c r="A6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="C6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="O6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>298</v>
+      <c r="P6" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:24">
-      <c r="A7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>307</v>
+      <c r="F7" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>310</v>
+      <c r="A8" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" ht="49.5" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="A9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="23">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>318</v>
+      <c r="F9" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" ht="49.5" spans="1:24">
-      <c r="A10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="S10" s="10" t="s">
+      <c r="F10" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="S10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>332</v>
+      <c r="T10" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>336</v>
+      <c r="C11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="12" ht="66" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="A12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="23">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>350</v>
+      <c r="F12" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="3:20">
-      <c r="C13" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="7">
+      <c r="C13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="26">
         <v>-10</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" ht="49.5" spans="4:24">
-      <c r="D14" s="11">
+      <c r="D14" s="29">
         <v>0.8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="30">
         <v>0.8</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>0.9</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="M14" s="1" t="s">
+      <c r="H14" s="26"/>
+      <c r="M14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="M15" s="1" t="s">
+      <c r="D15" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="M15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="33" spans="13:24">
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="13:24">
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="13:24">
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="S18" s="4" t="s">
+      <c r="R18" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="S18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="W18" s="22" t="s">
+      <c r="W18" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" ht="33" spans="13:24">
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="X19" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="13:24">
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="13:24">
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="S21" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="T21" s="4" t="s">
+      <c r="S21" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="T21" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="13:24">
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="13:24">
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24" ht="82.5" spans="13:24">
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="Q24" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="R24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="25" spans="13:24">
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="26" spans="13:24">
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="24" t="s">
+      <c r="U26" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X26" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27" ht="66" spans="13:24">
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="X27" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="13:24">
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="13:24">
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="X29" s="5" t="s">
+      <c r="X29" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="30" spans="13:24">
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U30" s="22" t="s">
+      <c r="U30" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="X30" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="13:22">
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="21:22">
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="21:22">
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="21:22">
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="35" spans="21:22">
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="21:22">
-      <c r="U36" s="22" t="s">
+      <c r="U36" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="V36" s="5" t="s">
+      <c r="V36" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="21:22">
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="V37" s="5" t="s">
+      <c r="V37" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="38" spans="21:22">
-      <c r="U38" s="5" t="s">
+      <c r="U38" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="V38" s="5" t="s">
+      <c r="V38" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="39" spans="21:22">
-      <c r="U39" s="5" t="s">
+      <c r="U39" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="V39" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="40" spans="21:22">
-      <c r="U40" s="5" t="s">
+      <c r="U40" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="V40" s="5" t="s">
+      <c r="V40" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="21:22">
-      <c r="U41" s="5" t="s">
+      <c r="U41" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="V41" s="5" t="s">
+      <c r="V41" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5088,14 +5725,701 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M27" sqref="L14:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.775" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5583333333333" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="28.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" ht="115.5" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" ht="33" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" ht="49.5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" ht="33" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" ht="33" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" ht="17.25" spans="8:13">
+      <c r="H14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="8:13">
+      <c r="H15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13">
+      <c r="H16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="8:13">
+      <c r="H17" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13">
+      <c r="H18" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13">
+      <c r="H20" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="H21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13">
+      <c r="H22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13">
+      <c r="H23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13">
+      <c r="H24" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="H39" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9">
+      <c r="H40" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" ht="115.5" spans="8:8">
+      <c r="H42" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="543">
   <si>
     <t>问题</t>
   </si>
@@ -1888,10 +1888,19 @@
     <t>TPO 23</t>
   </si>
   <si>
+    <t>TPO 24</t>
+  </si>
+  <si>
     <t>Allende Meteorite 20'3''</t>
   </si>
   <si>
     <t>Seventieth Century Dutch Agri- 22'55''</t>
+  </si>
+  <si>
+    <t>Rock art of the Australia Aborigines 21'59''</t>
+  </si>
+  <si>
+    <t>Lake Water</t>
   </si>
   <si>
     <r>
@@ -1956,6 +1965,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2 54s
 </t>
     </r>
@@ -1996,6 +2010,68 @@
     </r>
   </si>
   <si>
+    <t>没懂give way to的意思，约等于replace</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 70s
+3 38s
+6 63s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 62s</t>
+    </r>
+  </si>
+  <si>
+    <t>没理解rainfall和evaporation的关系</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 50s
+5 63s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 46s</t>
+    </r>
+  </si>
+  <si>
     <t>4 52s</t>
   </si>
   <si>
@@ -2005,6 +2081,12 @@
     <t>4 89s</t>
   </si>
   <si>
+    <t>4 102s</t>
+  </si>
+  <si>
+    <t>8 35s</t>
+  </si>
+  <si>
     <t>2 97s</t>
   </si>
   <si>
@@ -2012,6 +2094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -2026,9 +2114,64 @@
     </r>
   </si>
   <si>
+    <t>逻辑为王，没有关键词，用排除法</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230s
+4 151s</t>
+    </r>
+  </si>
+  <si>
     <t>6 29s</t>
   </si>
   <si>
+    <t>没理解段落结构，从while开始转折，都在说LM和other writers的对比</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5 80s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 152s</t>
+    </r>
+  </si>
+  <si>
+    <t>2 61s
+6 25s</t>
+  </si>
+  <si>
     <t>1 12s</t>
   </si>
   <si>
@@ -2036,6 +2179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -2049,6 +2198,9 @@
     </r>
   </si>
   <si>
+    <t>1 20s</t>
+  </si>
+  <si>
     <t>6 20s</t>
   </si>
   <si>
@@ -2058,6 +2210,45 @@
     <t>9 34s</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">没看错选项的前后句子关联
+Occasionally, common sense tells you which of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>these two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> possibilities applies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 52s</t>
+    </r>
+  </si>
+  <si>
     <t>8 42s</t>
   </si>
   <si>
@@ -2070,6 +2261,29 @@
     <t>10 185s</t>
   </si>
   <si>
+    <t>段落少的文章，遇到没有主旨，都是细节的情况，排除法，去掉细节不对的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 228s</t>
+    </r>
+  </si>
+  <si>
     <t>plummeted </t>
   </si>
   <si>
@@ -2082,6 +2296,36 @@
     <t>轮耕</t>
   </si>
   <si>
+    <t>encounter with</t>
+  </si>
+  <si>
+    <t>接触</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the majority of lakes, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>certainly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> those surrounded by forests, input from overland flow is too small to have a noticeable effect.</t>
+    </r>
+  </si>
+  <si>
     <t>bear the name</t>
   </si>
   <si>
@@ -2094,6 +2338,39 @@
     <t>food</t>
   </si>
   <si>
+    <t>speculative</t>
+  </si>
+  <si>
+    <t>推测性的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discovering the inputs and outputs of rivers is a matter of measuring the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>discharges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of every inflowing and outflowing stream and river.</t>
+    </r>
+  </si>
+  <si>
+    <t>流量</t>
+  </si>
+  <si>
     <t>allusion</t>
   </si>
   <si>
@@ -2106,6 +2383,18 @@
     <t>饲料作物</t>
   </si>
   <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>gauges</t>
+  </si>
+  <si>
+    <t>雨量器</t>
+  </si>
+  <si>
     <t>chondrules</t>
   </si>
   <si>
@@ -2118,6 +2407,55 @@
     <t>亚麻</t>
   </si>
   <si>
+    <t>steadily</t>
+  </si>
+  <si>
+    <t>不断</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">measuring the actual amounts of groundwater </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seepage into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the lake and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of the lake is a much more complicated matter than merely inferring their difference.</t>
+    </r>
+  </si>
+  <si>
     <t>droplet</t>
   </si>
   <si>
@@ -2130,6 +2468,15 @@
     <t>油菜；强奸</t>
   </si>
   <si>
+    <t>discern</t>
+  </si>
+  <si>
+    <t>辨别</t>
+  </si>
+  <si>
+    <t>it might flow through as part of the fastest, most direct current, or it might circle in a backwater for an indefinitely long time</t>
+  </si>
+  <si>
     <t>silicate</t>
   </si>
   <si>
@@ -2142,12 +2489,102 @@
     <t>畜牧业</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">is it possible to interpret accurately the subject matter of ancient rock art, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring to bear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> all available archaeological techniques and the knowledge of present-day Aboriginal informants?</t>
+    </r>
+  </si>
+  <si>
+    <t>利用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It depends on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at which water enters the lake, and that depends on the rainfall and the evaporation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
     <t>grain</t>
   </si>
   <si>
     <t>颗粒</t>
   </si>
   <si>
+    <t>incomprehensible</t>
+  </si>
+  <si>
+    <t>不可思议的</t>
+  </si>
+  <si>
+    <t>inflowing</t>
+  </si>
+  <si>
+    <t>流入的</t>
+  </si>
+  <si>
     <t>enigmatic</t>
   </si>
   <si>
@@ -2160,6 +2597,18 @@
     <t>租赁</t>
   </si>
   <si>
+    <t>antiquity</t>
+  </si>
+  <si>
+    <t>古迹</t>
+  </si>
+  <si>
+    <t>overland</t>
+  </si>
+  <si>
+    <t>陆上的</t>
+  </si>
+  <si>
     <t>fuse</t>
   </si>
   <si>
@@ -2169,6 +2618,18 @@
     <t>开垦的土地</t>
   </si>
   <si>
+    <t>reasonably</t>
+  </si>
+  <si>
+    <t>相当</t>
+  </si>
+  <si>
+    <t>soak into</t>
+  </si>
+  <si>
+    <t>渗透入</t>
+  </si>
+  <si>
     <t>perplexing</t>
   </si>
   <si>
@@ -2179,6 +2640,9 @@
   </si>
   <si>
     <t>关键的</t>
+  </si>
+  <si>
+    <t>Since the mid-1970s, a reasonably stable picture has formed of the organization of Australian rock art.</t>
   </si>
   <si>
     <t>constituent</t>
@@ -2201,6 +2665,9 @@
     <t>工业作物</t>
   </si>
   <si>
+    <t>In order to create a sense of structure to this picture, researchers have relied on a distinction that still underlies the forms of much indigenous visual culture—a distinction between geometric and figurative elements.</t>
+  </si>
+  <si>
     <t>refractory</t>
   </si>
   <si>
@@ -2213,6 +2680,12 @@
     <t>赶超</t>
   </si>
   <si>
+    <t>motifs</t>
+  </si>
+  <si>
+    <t>图案</t>
+  </si>
+  <si>
     <t>inclusion</t>
   </si>
   <si>
@@ -2225,28 +2698,55 @@
     <t>释放</t>
   </si>
   <si>
+    <t>peck into</t>
+  </si>
+  <si>
+    <t>刻</t>
+  </si>
+  <si>
     <t>titanium</t>
   </si>
   <si>
     <t>钛</t>
   </si>
   <si>
+    <t>glaze</t>
+  </si>
+  <si>
+    <t>釉</t>
+  </si>
+  <si>
     <t>condensation</t>
   </si>
   <si>
     <t>冷凝</t>
   </si>
   <si>
+    <t>figurative</t>
+  </si>
+  <si>
+    <t>象征的</t>
+  </si>
+  <si>
     <t>fine-grained</t>
   </si>
   <si>
     <t>细颗粒</t>
   </si>
   <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>遮蔽了，弱化了</t>
+  </si>
+  <si>
     <t>pristine</t>
   </si>
   <si>
     <t>原始的</t>
+  </si>
+  <si>
+    <t>In the 1970s when the study of Australian archaeology was in an exciting phase of development, with the great antiquity of rock art becoming clear. Lesley Maynard, the archaeologist who coined the phrase “Panaramitee style,” suggested that a sequence could be determined for Australian rock art, in which a geometric style gave way to a simple figurative style (outlines of figures and animals), followed by a range of complex figurative styles that, unlike the pan-Australian geometric tradition, tended to much greater regional diversity. While accepting that this sequence fits the archaeological profile of those sites, which were occupied continuously over many thousands of years a number of writers have warned that the underlying assumption of such a sequence—a development from the simple and the geometric to the complex and naturalistic—obscures the cultural continuities in Aboriginal Australia, in which geometric symbolism remains fundamentally important. In this context the simplicity of a geometric motif may be more apparent than real. Motifs of seeming simplicity can encode complex meanings in Aboriginal Australia. And has not twentieth-century art shown that naturalism does not necessarily follow abstraction in some kind of predetermine sequence?</t>
   </si>
   <si>
     <t>aggregate</t>
@@ -2748,7 +3248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2789,6 +3289,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2906,7 +3417,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2936,7 +3447,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2954,28 +3465,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2984,10 +3495,10 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3045,7 +3556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3085,6 +3596,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3092,28 +3606,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3170,9 +3708,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3563,27 +4098,27 @@
   <cols>
     <col min="1" max="1" width="39.3833333333333" style="5" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="41"/>
+    <col min="3" max="3" width="9" style="50"/>
     <col min="4" max="4" width="29.8833333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="34.6333333333333" style="5" customWidth="1"/>
-    <col min="6" max="8" width="9" style="41"/>
+    <col min="6" max="8" width="9" style="50"/>
     <col min="9" max="9" width="49.8833333333333" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="16384" width="9" style="41"/>
+    <col min="11" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="I1" s="42" t="s">
+      <c r="E1" s="14"/>
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" ht="49.5" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -3615,7 +4150,7 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3626,7 +4161,7 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3646,7 +4181,7 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="52" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3730,7 +4265,7 @@
       <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3825,228 +4360,228 @@
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="53" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="45" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="45" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="45" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="45" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="58" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -4054,7 +4589,7 @@
       </c>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="58" t="s">
         <v>128</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -4070,7 +4605,7 @@
       </c>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="59" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -4134,7 +4669,7 @@
       </c>
     </row>
     <row r="57" spans="4:5">
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="58" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -4142,7 +4677,7 @@
       </c>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="60" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -4158,7 +4693,7 @@
       </c>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="58" t="s">
         <v>154</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -4174,7 +4709,7 @@
       </c>
     </row>
     <row r="62" spans="4:5">
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -4190,7 +4725,7 @@
       </c>
     </row>
     <row r="64" spans="4:5">
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="58" t="s">
         <v>162</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -4222,7 +4757,7 @@
       </c>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="59" t="s">
         <v>170</v>
       </c>
       <c r="E68" s="6" t="s">
@@ -4254,7 +4789,7 @@
       </c>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="58" t="s">
         <v>178</v>
       </c>
       <c r="E72" s="6" t="s">
@@ -4262,7 +4797,7 @@
       </c>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="58" t="s">
         <v>180</v>
       </c>
       <c r="E73" s="6" t="s">
@@ -4278,7 +4813,7 @@
       </c>
     </row>
     <row r="75" spans="4:5">
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="58" t="s">
         <v>184</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -4302,7 +4837,7 @@
       </c>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="59" t="s">
         <v>190</v>
       </c>
       <c r="E78" s="6" t="s">
@@ -4326,7 +4861,7 @@
       </c>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="58" t="s">
         <v>196</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -4406,7 +4941,7 @@
       </c>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="45" t="s">
+      <c r="D91" s="53" t="s">
         <v>216</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -4414,7 +4949,7 @@
       </c>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="45" t="s">
+      <c r="D92" s="53" t="s">
         <v>218</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -4422,7 +4957,7 @@
       </c>
     </row>
     <row r="93" spans="4:5">
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="53" t="s">
         <v>220</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -4430,7 +4965,7 @@
       </c>
     </row>
     <row r="94" spans="4:5">
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="53" t="s">
         <v>222</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -4438,7 +4973,7 @@
       </c>
     </row>
     <row r="95" spans="4:5">
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="53" t="s">
         <v>224</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -4446,7 +4981,7 @@
       </c>
     </row>
     <row r="96" spans="4:5">
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="53" t="s">
         <v>226</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -4454,7 +4989,7 @@
       </c>
     </row>
     <row r="97" spans="4:5">
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="53" t="s">
         <v>228</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -4462,7 +4997,7 @@
       </c>
     </row>
     <row r="98" spans="4:5">
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="53" t="s">
         <v>230</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -4470,7 +5005,7 @@
       </c>
     </row>
     <row r="99" spans="4:5">
-      <c r="D99" s="45" t="s">
+      <c r="D99" s="53" t="s">
         <v>232</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -4478,7 +5013,7 @@
       </c>
     </row>
     <row r="100" spans="4:5">
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="53" t="s">
         <v>234</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -4486,7 +5021,7 @@
       </c>
     </row>
     <row r="101" spans="4:5">
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="53" t="s">
         <v>236</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -4494,7 +5029,7 @@
       </c>
     </row>
     <row r="102" spans="4:5">
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="53" t="s">
         <v>238</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -4502,7 +5037,7 @@
       </c>
     </row>
     <row r="103" spans="4:5">
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="53" t="s">
         <v>240</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -4510,7 +5045,7 @@
       </c>
     </row>
     <row r="104" spans="4:5">
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -4518,7 +5053,7 @@
       </c>
     </row>
     <row r="105" spans="4:5">
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="53" t="s">
         <v>244</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -4526,7 +5061,7 @@
       </c>
     </row>
     <row r="106" spans="4:5">
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="53" t="s">
         <v>246</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -4534,7 +5069,7 @@
       </c>
     </row>
     <row r="107" spans="4:5">
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="53" t="s">
         <v>248</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -4542,7 +5077,7 @@
       </c>
     </row>
     <row r="108" spans="4:5">
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="53" t="s">
         <v>250</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -4574,40 +5109,40 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="6" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="21.775" style="23" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="49.3333333333333" style="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5583333333333" style="23" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.775" style="32" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3333333333333" style="32" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="32" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5583333333333" style="32" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="32" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="48.4416666666667" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.1083333333333" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="32.225" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.4416666666667" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="36.4416666666667" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="16.1083333333333" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.4416666666667" style="23" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="23" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5583333333333" style="23" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1083333333333" style="23" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26" style="24" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1333333333333" style="24" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.4416666666667" style="32" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="32" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5583333333333" style="32" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1083333333333" style="32" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="33" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1333333333333" style="33" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="10" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.6833333333333" style="10" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="23.0083333333333" style="10" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="20.7833333333333" style="10" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="14.7" style="4" customWidth="1"/>
     <col min="26" max="26" width="23.825" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="25"/>
+    <col min="27" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="5" t="s">
         <v>253</v>
       </c>
@@ -4616,14 +5151,14 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
       <c r="U1" s="6" t="s">
         <v>255</v>
       </c>
@@ -4634,14 +5169,14 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="4:24">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="32" t="s">
         <v>258</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -4654,18 +5189,18 @@
       <c r="M2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="36" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="36"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="6" t="s">
         <v>264</v>
       </c>
@@ -4685,20 +5220,20 @@
       <c r="C3" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="32">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="33" t="s">
         <v>272</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -4716,19 +5251,19 @@
       <c r="N3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="33" t="s">
         <v>282</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -4748,29 +5283,29 @@
       <c r="B4" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="32">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="37" t="s">
         <v>293</v>
       </c>
       <c r="V4" s="10" t="s">
@@ -4787,10 +5322,10 @@
       <c r="C5" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="32">
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="32" t="s">
         <v>297</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -4799,13 +5334,13 @@
       <c r="N5" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="32" t="s">
         <v>302</v>
       </c>
       <c r="X5" s="10" t="s">
@@ -4822,16 +5357,16 @@
       <c r="C6" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="32" t="s">
         <v>309</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -4840,22 +5375,22 @@
       <c r="L6" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="33" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4869,13 +5404,13 @@
       <c r="C7" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="32">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="32">
         <v>1</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="32" t="s">
         <v>320</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -4884,10 +5419,10 @@
       <c r="L7" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="33" t="s">
         <v>324</v>
       </c>
       <c r="X7" s="10" t="s">
@@ -4918,10 +5453,10 @@
       <c r="C9" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="32">
         <v>1</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="32" t="s">
         <v>332</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -4930,10 +5465,10 @@
       <c r="K9" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="32" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4947,16 +5482,16 @@
       <c r="C10" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="32" t="s">
         <v>340</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -4968,22 +5503,22 @@
       <c r="N10" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="37" t="s">
         <v>348</v>
       </c>
       <c r="V10" s="10" t="s">
@@ -5003,7 +5538,7 @@
       <c r="C11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="33" t="s">
         <v>353</v>
       </c>
       <c r="V11" s="10" t="s">
@@ -5017,22 +5552,22 @@
       <c r="C12" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="32" t="s">
         <v>359</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="40" t="s">
         <v>361</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -5041,13 +5576,13 @@
       <c r="N12" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="42" t="s">
         <v>366</v>
       </c>
       <c r="V12" s="10" t="s">
@@ -5061,60 +5596,60 @@
       <c r="C13" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="26">
+      <c r="O13" s="35">
         <v>-10</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" ht="49.5" spans="4:24">
-      <c r="D14" s="29">
+      <c r="D14" s="38">
         <v>0.8</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="39">
         <v>0.8</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39">
         <v>0.9</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="35"/>
       <c r="M14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="24" t="s">
+      <c r="T14" s="33" t="s">
         <v>107</v>
       </c>
       <c r="U14" s="10" t="s">
@@ -5131,35 +5666,35 @@
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="M15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="T15" s="24" t="s">
+      <c r="T15" s="33" t="s">
         <v>109</v>
       </c>
       <c r="U15" s="10" t="s">
@@ -5176,28 +5711,28 @@
       </c>
     </row>
     <row r="16" ht="33" spans="13:24">
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="33" t="s">
         <v>111</v>
       </c>
       <c r="U16" s="10" t="s">
@@ -5217,28 +5752,28 @@
       <c r="M17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="T17" s="24" t="s">
+      <c r="T17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="47" t="s">
         <v>132</v>
       </c>
       <c r="V17" s="10" t="s">
@@ -5258,22 +5793,22 @@
       <c r="N18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="T18" s="24" t="s">
+      <c r="T18" s="33" t="s">
         <v>115</v>
       </c>
       <c r="U18" s="10" t="s">
@@ -5282,7 +5817,7 @@
       <c r="V18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W18" s="47" t="s">
         <v>190</v>
       </c>
       <c r="X18" s="10" t="s">
@@ -5296,22 +5831,22 @@
       <c r="N19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="T19" s="24" t="s">
+      <c r="T19" s="33" t="s">
         <v>117</v>
       </c>
       <c r="U19" s="10" t="s">
@@ -5334,16 +5869,16 @@
       <c r="N20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="T20" s="33" t="s">
         <v>119</v>
       </c>
       <c r="U20" s="10" t="s">
@@ -5366,16 +5901,16 @@
       <c r="N21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="T21" s="24" t="s">
+      <c r="T21" s="33" t="s">
         <v>121</v>
       </c>
       <c r="U21" s="10" t="s">
@@ -5398,16 +5933,16 @@
       <c r="N22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="T22" s="24" t="s">
+      <c r="T22" s="33" t="s">
         <v>123</v>
       </c>
       <c r="U22" s="10" t="s">
@@ -5430,16 +5965,16 @@
       <c r="N23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="T23" s="33" t="s">
         <v>125</v>
       </c>
       <c r="U23" s="10" t="s">
@@ -5462,13 +5997,13 @@
       <c r="N24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="Q24" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="33" t="s">
         <v>12</v>
       </c>
       <c r="U24" s="10" t="s">
@@ -5511,7 +6046,7 @@
       <c r="N26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="40" t="s">
+      <c r="U26" s="49" t="s">
         <v>150</v>
       </c>
       <c r="V26" s="10" t="s">
@@ -5588,7 +6123,7 @@
       <c r="N30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="U30" s="47" t="s">
         <v>158</v>
       </c>
       <c r="V30" s="10" t="s">
@@ -5605,7 +6140,7 @@
       <c r="M31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="40" t="s">
         <v>71</v>
       </c>
       <c r="U31" s="10" t="s">
@@ -5648,7 +6183,7 @@
       </c>
     </row>
     <row r="36" spans="21:22">
-      <c r="U36" s="38" t="s">
+      <c r="U36" s="47" t="s">
         <v>170</v>
       </c>
       <c r="V36" s="10" t="s">
@@ -5725,25 +6260,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M27" sqref="L14:M27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5583333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="28.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="43.775" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5583333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1333333333333" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1333333333333" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="65.8916666666667" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.4416666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="32.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -5763,8 +6303,16 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
@@ -5777,19 +6325,29 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" ht="115.5" spans="1:15">
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" ht="115.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>266</v>
       </c>
@@ -5810,23 +6368,37 @@
         <v>285</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" ht="33" spans="1:15">
+        <v>381</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" ht="33" spans="1:21">
       <c r="A4" s="4" t="s">
         <v>286</v>
       </c>
@@ -5842,20 +6414,30 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" ht="49.5" spans="1:15">
+        <v>388</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" ht="49.5" spans="1:21">
       <c r="A5" s="4" t="s">
         <v>295</v>
       </c>
@@ -5873,20 +6455,30 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15">
+        <v>393</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="33" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>304</v>
       </c>
@@ -5902,16 +6494,28 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" ht="33" spans="1:15">
+        <v>398</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="33" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
@@ -5929,20 +6533,28 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15">
+        <v>402</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>326</v>
       </c>
@@ -5960,16 +6572,22 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>329</v>
       </c>
@@ -5985,14 +6603,20 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" ht="66" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>337</v>
       </c>
@@ -6012,18 +6636,28 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15">
+        <v>407</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>351</v>
       </c>
@@ -6041,16 +6675,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" ht="33" spans="1:15">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+    </row>
+    <row r="12" ht="33" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>355</v>
       </c>
@@ -6068,20 +6708,30 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15">
+        <v>412</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -6093,330 +6743,477 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" ht="17.25" spans="8:13">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" ht="66" spans="8:16">
       <c r="H14" s="11" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="8:13">
+        <v>418</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" ht="82.5" spans="8:17">
       <c r="H15" s="2" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="8:13">
+        <v>425</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="8:17">
       <c r="H16" s="2" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" ht="17.25" spans="8:13">
+        <v>433</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" ht="82.5" spans="8:16">
       <c r="H17" s="11" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13">
+        <v>441</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" ht="66" spans="8:16">
       <c r="H18" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13">
+        <v>448</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" ht="66" spans="8:17">
       <c r="H19" s="2" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13">
+        <v>455</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17">
       <c r="H20" s="2" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="8:13">
+      <c r="N20" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17">
       <c r="H21" s="2" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13">
+        <v>469</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17">
       <c r="H22" s="2" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13">
+      <c r="M22" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" ht="33" spans="8:14">
       <c r="H23" s="2" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="8:13">
+        <v>484</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" ht="66" spans="8:14">
       <c r="H24" s="2" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13">
+        <v>489</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15">
       <c r="H25" s="2" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13">
+        <v>494</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15">
       <c r="H26" s="2" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9">
+        <v>500</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15">
       <c r="H27" s="2" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9">
+        <v>506</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15">
       <c r="H28" s="2" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9">
+        <v>510</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15">
       <c r="H29" s="2" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9">
+        <v>514</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" ht="313.5" spans="8:14">
       <c r="H30" s="2" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>454</v>
+        <v>518</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="2" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="2" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="H33" s="2" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="8:9">
       <c r="H34" s="2" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="8:9">
       <c r="H35" s="2" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="8:9">
       <c r="H36" s="2" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="2" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="2" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="8:9">
       <c r="H39" s="2" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="8:9">
       <c r="H40" s="2" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="8:9">
       <c r="H41" s="2" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" ht="115.5" spans="8:8">
       <c r="H42" s="12" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P13:U13"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>

--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="22356" windowHeight="10020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
     <sheet name="8.7-11" sheetId="1" r:id="rId2"/>
-    <sheet name="8.15" sheetId="3" r:id="rId3"/>
+    <sheet name="8.15-18" sheetId="3" r:id="rId3"/>
+    <sheet name="8.22-" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="642">
   <si>
     <t>问题</t>
   </si>
@@ -25,6 +26,9 @@
   </si>
   <si>
     <t>长难句</t>
+  </si>
+  <si>
+    <t>敏感词</t>
   </si>
   <si>
     <t>注意信号词：</t>
@@ -43,6 +47,9 @@
     <t>Different ratios in the shells preserved in various layers of sediment reveal the temperature changes in the oceans during the Pleistocene epoch.</t>
   </si>
   <si>
+    <t>rather than</t>
+  </si>
+  <si>
     <t>修辞题看主旨！！！</t>
   </si>
   <si>
@@ -62,6 +69,9 @@
   </si>
   <si>
     <t>No doubt the ability to talk about one's past represents memory of a different level of complexity than simple recognition or recall.</t>
+  </si>
+  <si>
+    <t>eventually</t>
   </si>
   <si>
     <t>熟悉单词的不熟悉组合，导致巨大失误！！</t>
@@ -3289,6 +3299,441 @@
   </si>
   <si>
     <t>In the 1970s when the study of Australian archaeology was in an exciting phase of development, with the great antiquity of rock art becoming clear. Lesley Maynard, the archaeologist who coined the phrase “Panaramitee style,” suggested that a sequence could be determined for Australian rock art, in which a geometric style gave way to a simple figurative style (outlines of figures and animals), followed by a range of complex figurative styles that, unlike the pan-Australian geometric tradition, tended to much greater regional diversity. While accepting that this sequence fits the archaeological profile of those sites, which were occupied continuously over many thousands of years a number of writers have warned that the underlying assumption of such a sequence—a development from the simple and the geometric to the complex and naturalistic—obscures the cultural continuities in Aboriginal Australia, in which geometric symbolism remains fundamentally important. In this context the simplicity of a geometric motif may be more apparent than real. Motifs of seeming simplicity can encode complex meanings in Aboriginal Australia. And has not twentieth-century art shown that naturalism does not necessarily follow abstraction in some kind of predetermine sequence?</t>
+  </si>
+  <si>
+    <t>breathing during sleep 23'20'' 记笔记时间花太久
+Cause Effect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 50s
+5 63s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 46s</t>
+    </r>
+  </si>
+  <si>
+    <t>7 when inhaling is difficult不好找，其实有关键词，under such condition....，后面的都不是了</t>
+  </si>
+  <si>
+    <t>1 101s
+4 123s
+7 125s</t>
+  </si>
+  <si>
+    <t>2 27s
+6 80s</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230s
+4 151s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, the coughing reflex in reaction to irritants in the airway produces not a cough during sleep but a cessation of breathing. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>If the irritation is severe enough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, a sleeping person will arouse, clear the airway, then resume breathing and likely return to sleep.
+高亮句在说严重到一定程度时，那之前的就是不太严重的时候</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 135s</t>
+    </r>
+  </si>
+  <si>
+    <t>修辞目的题，先看修辞点所在的句子，但原句整个都是一个例子，往前看；前一句仍然在说肌肉relax的事情，因此也是例子，再往前看；也就是第三句，take twice effort</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 80s</t>
+    </r>
+  </si>
+  <si>
+    <t>3 19s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">没看错选项的前后句子关联
+Occasionally, common sense tells you which of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>these two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> possibilities applies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 52s</t>
+    </r>
+  </si>
+  <si>
+    <t>10 95s</t>
+  </si>
+  <si>
+    <t>10 138s</t>
+  </si>
+  <si>
+    <t>rib cage</t>
+  </si>
+  <si>
+    <t>胸腔</t>
+  </si>
+  <si>
+    <t>diaphragm</t>
+  </si>
+  <si>
+    <t>隔膜</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">two </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interacting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> system</t>
+    </r>
+  </si>
+  <si>
+    <t>相互影响的</t>
+  </si>
+  <si>
+    <t>subconsciously</t>
+  </si>
+  <si>
+    <t>潜意识的</t>
+  </si>
+  <si>
+    <t>acid-base ratio</t>
+  </si>
+  <si>
+    <t>酸碱比</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The second system is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>voluntary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, behavioral system</t>
+    </r>
+  </si>
+  <si>
+    <t>自发的，自主的</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>覆盖，无视</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">metabolic system is less </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>responsive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to carbon dioxide levels</t>
+    </r>
+  </si>
+  <si>
+    <t>反馈，灵敏</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">as the sleeper </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waxes and wanes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> between sleep and wakefulness</t>
+    </r>
+  </si>
+  <si>
+    <t>徘徊（盛衰）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">there may be a brief </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cessation</t>
+    </r>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <r>
+      <t>inhaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sucking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> air out of a balloon</t>
+    </r>
+  </si>
+  <si>
+    <t>吸入</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>respiratory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> regulating mechanisms apparently cease functioning during sleep</t>
+    </r>
+  </si>
+  <si>
+    <t>呼吸的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reflexive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> adjustment is totally absent during NREM sleep</t>
+    </r>
+  </si>
+  <si>
+    <t>反射性的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the coughing reflex in reaction to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>irritants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the airway produces not a cough during sleep but a cessation of breathing.</t>
+    </r>
+  </si>
+  <si>
+    <t>刺激物</t>
+  </si>
+  <si>
+    <t>Other respiratory regulating mechanisms apparently cease functioning during sleep. For example, during wakefulness   there is an immediate, automatic, adaptive increase in breathing effort when inhaling is made more difficult (such as breathing through a restrictive face mask). This reflexive adjustment is totally absent during NREM sleep. Only after several inadequate breaths under such conditions, resulting in the considerable elevation of carbon dioxide and reduction of oxygen in the blood, is breathing effort adjusted. Finally, the coughing reflex in reaction to irritants in the airway produces not a cough during sleep but a cessation of breathing. If the irritation is severe enough, a sleeping person will arouse, clear the airway, then resume breathing and likely return to sleep.</t>
   </si>
 </sst>
 </file>
@@ -3322,6 +3767,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
@@ -3334,21 +3798,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3512,13 +3964,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3906,10 +4351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3918,34 +4363,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3957,104 +4399,110 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4070,23 +4518,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4094,26 +4590,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4127,7 +4605,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4142,16 +4620,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,13 +4638,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4175,13 +4653,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4196,16 +4674,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4214,7 +4689,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4223,11 +4698,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4577,2226 +5049,2236 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="43.1416666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="40"/>
-    <col min="4" max="4" width="29.8833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5583333333333" style="40" customWidth="1"/>
-    <col min="7" max="7" width="27" style="40" customWidth="1"/>
-    <col min="8" max="8" width="22.5583333333333" style="40" customWidth="1"/>
-    <col min="9" max="11" width="9" style="40"/>
-    <col min="12" max="12" width="77.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.1" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="43.1388888888889" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="51"/>
+    <col min="4" max="4" width="29.8796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.6296296296296" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5555555555556" style="51" customWidth="1"/>
+    <col min="7" max="7" width="27" style="51" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" style="51" customWidth="1"/>
+    <col min="9" max="11" width="9" style="51"/>
+    <col min="12" max="12" width="77.6666666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="28.1018518518519" style="5" customWidth="1"/>
+    <col min="14" max="14" width="20.3888888888889" style="51" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="L1" s="53" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" ht="33" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" ht="31.2" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="L2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="33" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="L2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="N2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="3" ht="31.2" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="25" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="66" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="L3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="N3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="4" ht="78" spans="1:12">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="41" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" ht="66" spans="1:12">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="H4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="L4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="5" ht="62.4" spans="1:12">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="43" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" ht="34.5" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="L5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="44" t="s">
+    </row>
+    <row r="6" ht="31.2" spans="1:12">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="45" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" ht="66" spans="1:12">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="H6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" ht="62.4" spans="1:12">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="43" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" ht="33" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="H7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="L7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="8" ht="31.8" spans="1:13">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" ht="49.5" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="L8" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="9" ht="48" spans="1:12">
+      <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="46" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" ht="267" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="L9" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="46" t="s">
+    </row>
+    <row r="10" ht="288.6" spans="1:12">
+      <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="E10" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" ht="33" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="L10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="11" ht="47.4" spans="1:12">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="46" t="s">
+      <c r="B11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" ht="33" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="L11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="4" t="s">
+    </row>
+    <row r="12" ht="31.2" spans="1:12">
+      <c r="A12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="46" t="s">
+      <c r="B12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="D12" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" ht="66" spans="1:8">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="L12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="4" t="s">
+    </row>
+    <row r="13" ht="62.4" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="46" t="s">
+      <c r="B13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="D18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" ht="79.8" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" ht="31.2" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" ht="31.2" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" ht="31.8" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" ht="31.2" spans="1:8">
+      <c r="A26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" ht="31.2" spans="1:8">
+      <c r="A27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" ht="47.4" spans="1:8">
+      <c r="A28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="D30" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" ht="124.8" spans="4:8">
+      <c r="D43" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="D46" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8">
+      <c r="D48" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="D49" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="4:8">
+      <c r="D50" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="D52" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="D53" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="D54" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="D55" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="4:8">
+      <c r="D56" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="D57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="4:8">
+      <c r="D58" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="4:8">
+      <c r="D59" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="4:8">
+      <c r="D60" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="4:8">
+      <c r="D61" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="D62" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="4:8">
+      <c r="D63" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="D64" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="4:8">
+      <c r="D69" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="4:8">
+      <c r="D71" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="4:8">
+      <c r="D72" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="4:8">
+      <c r="D73" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="4:8">
+      <c r="D74" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E74" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" ht="31.2" spans="4:8">
+      <c r="D75" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="4:8">
+      <c r="D76" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="4:8">
+      <c r="D77" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="4:8">
+      <c r="D78" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="4:8">
+      <c r="D79" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="4:8">
+      <c r="D80" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="4:8">
+      <c r="D81" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="4:8">
+      <c r="D82" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E82" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F82" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="4:8">
+      <c r="D83" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="4:8">
+      <c r="D84" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="4:8">
+      <c r="D85" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="4:8">
+      <c r="D86" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="4:8">
+      <c r="D87" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="4:8">
+      <c r="D88" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="4:8">
+      <c r="D89" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="4:8">
+      <c r="D90" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="4:8">
+      <c r="D91" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E91" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F91" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="4:8">
+      <c r="D92" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="4:8">
+      <c r="D93" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="4:8">
+      <c r="D94" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E94" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="D18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F94" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="4:8">
+      <c r="D95" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="47" t="s">
+      <c r="E95" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" ht="82.5" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="F95" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="4:8">
+      <c r="D96" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E96" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" ht="33" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="F96" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="4:8">
+      <c r="D97" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="4:8">
+      <c r="D98" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E98" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" ht="33" spans="1:8">
-      <c r="A21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="F98" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="4:8">
+      <c r="D99" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="E99" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="F99" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="4:8">
+      <c r="D100" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E100" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="F100" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="4:8">
+      <c r="D101" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="4:8">
+      <c r="D102" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E102" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="F102" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="4:8">
+      <c r="D103" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="4:8">
+      <c r="D104" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E104" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" ht="33" spans="1:8">
-      <c r="A25" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="F104" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="4:8">
+      <c r="D105" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="E105" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" ht="33" spans="1:8">
-      <c r="A26" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="F105" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="4:8">
+      <c r="D106" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E106" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="F106" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="4:8">
+      <c r="D107" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="4:8">
+      <c r="D108" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="4:8">
+      <c r="D109" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="4:5">
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+    </row>
+    <row r="111" ht="17.4" spans="4:5">
+      <c r="D111" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="D112" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E113" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" ht="49.5" spans="1:8">
-      <c r="A28" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="F113" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" ht="17.4" spans="4:5">
+      <c r="D114" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="E118" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="25" t="s">
+      <c r="F118" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8">
-      <c r="D30" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="25" t="s">
+      <c r="F121" s="51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="D123" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8">
-      <c r="D31" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="25" t="s">
+      <c r="F123" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="D128" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8">
-      <c r="D32" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="F128" s="51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="D130" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="F130" s="51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="D131" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H33" s="49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8">
-      <c r="D34" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="25" t="s">
+      <c r="F131" s="51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="D132" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="s">
+      <c r="E132" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8">
-      <c r="D35" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="25" t="s">
+      <c r="F132" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="D133" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="F133" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6">
+      <c r="D134" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6">
+      <c r="D136" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F136" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="D142" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F142" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="D143" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F143" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" spans="4:8">
-      <c r="D36" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E145" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8">
-      <c r="D37" s="45" t="s">
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="D147" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F147" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8">
-      <c r="D38" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="D39" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8">
-      <c r="D40" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8">
-      <c r="D41" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="5" t="s">
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6">
+      <c r="D151" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="E151" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="4:8">
-      <c r="D42" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="35" t="s">
+      <c r="F151" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6">
+      <c r="D152" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="s">
+      <c r="E152" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H42" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" ht="132" spans="4:8">
-      <c r="D43" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E43" s="35" t="s">
+      <c r="F152" s="51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="D155" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8">
-      <c r="D44" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F155" s="51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="157" ht="124.8" spans="4:6">
+      <c r="D157" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="E157" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="45" spans="4:8">
-      <c r="D45" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="35" t="s">
+      <c r="F157" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6">
+      <c r="D158" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H45" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8">
-      <c r="D46" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="F158" s="51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="D160" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="47" spans="4:8">
-      <c r="D47" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E160" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="F160" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6">
+      <c r="D162" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="E162" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="48" spans="4:8">
-      <c r="D48" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F162" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6">
+      <c r="D166" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H48" s="49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F166" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" ht="78.6" spans="4:5">
+      <c r="D167" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="168" ht="78.6" spans="4:5">
+      <c r="D168" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" ht="79.2" spans="4:5">
+      <c r="D170" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6">
+      <c r="D173" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="4:8">
-      <c r="D50" s="51" t="s">
+      <c r="E173" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="D52" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="D53" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="D54" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="4:8">
-      <c r="D56" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="D57" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="4:8">
-      <c r="D58" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="4:8">
-      <c r="D59" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="4:8">
-      <c r="D60" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="4:8">
-      <c r="D61" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="4:8">
-      <c r="D62" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="4:8">
-      <c r="D63" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="4:8">
-      <c r="D64" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="4:8">
-      <c r="D65" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="4:8">
-      <c r="D66" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="4:8">
-      <c r="D67" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="4:8">
-      <c r="D68" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="4:8">
-      <c r="D69" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="4:8">
-      <c r="D70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="4:8">
-      <c r="D71" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="4:8">
-      <c r="D72" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="4:8">
-      <c r="D73" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="4:8">
-      <c r="D74" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" ht="33" spans="4:8">
-      <c r="D75" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="4:8">
-      <c r="D76" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="4:8">
-      <c r="D77" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="4:8">
-      <c r="D78" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="4:8">
-      <c r="D79" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="4:8">
-      <c r="D80" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="4:8">
-      <c r="D81" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="4:8">
-      <c r="D82" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="4:8">
-      <c r="D83" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="4:8">
-      <c r="D84" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="4:8">
-      <c r="D85" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="4:8">
-      <c r="D86" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="4:8">
-      <c r="D87" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="4:8">
-      <c r="D88" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="4:8">
-      <c r="D89" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="4:8">
-      <c r="D90" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="4:8">
-      <c r="D91" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="4:8">
-      <c r="D92" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="4:8">
-      <c r="D93" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="4:8">
-      <c r="D94" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="4:8">
-      <c r="D95" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="4:8">
-      <c r="D96" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="4:8">
-      <c r="D97" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="4:8">
-      <c r="D98" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="4:8">
-      <c r="D99" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="4:8">
-      <c r="D100" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="4:8">
-      <c r="D101" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="4:8">
-      <c r="D102" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="4:8">
-      <c r="D103" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="4:8">
-      <c r="D104" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="4:8">
-      <c r="D105" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="4:8">
-      <c r="D106" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="4:8">
-      <c r="D107" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="4:8">
-      <c r="D108" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="4:8">
-      <c r="D109" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="4:5">
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-    </row>
-    <row r="111" ht="17.25" spans="4:5">
-      <c r="D111" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="E111" s="49" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5">
-      <c r="D112" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E112" s="49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="D113" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="114" ht="17.25" spans="4:5">
-      <c r="D114" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="E114" s="49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5">
-      <c r="D115" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E115" s="49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5">
-      <c r="D116" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E116" s="49" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5">
-      <c r="D117" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E117" s="49" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="D118" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E118" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="F118" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5">
-      <c r="D119" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E119" s="49" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5">
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E120" s="49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="D121" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E121" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F121" s="40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5">
-      <c r="D122" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E122" s="49" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="D123" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="F123" s="40" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5">
-      <c r="D124" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E124" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5">
-      <c r="D125" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E125" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5">
-      <c r="D126" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5">
-      <c r="D127" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E127" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="D128" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F128" s="40" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5">
-      <c r="D129" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E129" s="49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6">
-      <c r="D130" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E130" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6">
-      <c r="D131" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E131" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="F131" s="40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6">
-      <c r="D132" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E132" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="F133" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E134" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="F134" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5">
-      <c r="D135" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E135" s="49" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6">
-      <c r="D136" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="F136" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="4:5">
-      <c r="D137" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E137" s="49" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="4:5">
-      <c r="D138" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E138" s="49" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5">
-      <c r="D139" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5">
-      <c r="D140" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5">
-      <c r="D141" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6">
-      <c r="D142" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F142" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6">
-      <c r="D143" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F143" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5">
-      <c r="D144" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5">
-      <c r="D145" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="4:5">
-      <c r="D146" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6">
-      <c r="D147" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F147" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5">
-      <c r="D148" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="149" spans="4:5">
-      <c r="D149" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="150" spans="4:5">
-      <c r="D150" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6">
-      <c r="D151" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F151" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6">
-      <c r="D152" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E152" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F152" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5">
-      <c r="D153" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E153" s="49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5">
-      <c r="D154" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E154" s="49" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6">
-      <c r="D155" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E155" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F155" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5">
-      <c r="D156" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E156" s="49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="157" ht="115.5" spans="4:6">
-      <c r="D157" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E157" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="F157" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6">
-      <c r="D158" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E158" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="F158" s="40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="4:5">
-      <c r="D159" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E159" s="49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6">
-      <c r="D160" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E160" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="F160" s="40" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5">
-      <c r="D161" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E161" s="49" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6">
-      <c r="D162" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E162" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F162" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5">
-      <c r="D163" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E163" s="49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5">
-      <c r="D164" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E164" s="49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5">
-      <c r="D165" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6">
-      <c r="D166" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E166" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="F166" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="167" ht="82.5" spans="4:5">
-      <c r="D167" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E167" s="49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="168" ht="82.5" spans="4:5">
-      <c r="D168" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E168" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5">
-      <c r="D169" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E169" s="49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="170" ht="66" spans="4:5">
-      <c r="D170" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E170" s="49" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="171" spans="4:5">
-      <c r="D171" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E171" s="49" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="172" spans="4:5">
-      <c r="D172" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E172" s="49" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6">
-      <c r="D173" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E173" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F173" s="40" t="s">
-        <v>430</v>
+      <c r="F173" s="51" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6820,1130 +7302,1130 @@
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="6" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="21.775" style="22" customWidth="1"/>
-    <col min="5" max="5" width="49.3333333333333" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8" style="22" customWidth="1"/>
-    <col min="7" max="7" width="27.5583333333333" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9" style="22" customWidth="1"/>
-    <col min="9" max="9" width="48.4416666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.1083333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="32.225" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.4416666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="36.4416666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.1083333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.4416666666667" style="22" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="22" customWidth="1"/>
-    <col min="17" max="17" width="29.5583333333333" style="22" customWidth="1"/>
-    <col min="18" max="18" width="17.1083333333333" style="22" customWidth="1"/>
-    <col min="19" max="19" width="26" style="23" customWidth="1"/>
-    <col min="20" max="20" width="17.1333333333333" style="23" customWidth="1"/>
-    <col min="21" max="21" width="20" style="9" customWidth="1"/>
-    <col min="22" max="22" width="15.6833333333333" style="9" customWidth="1"/>
-    <col min="23" max="23" width="23.0083333333333" style="9" customWidth="1"/>
-    <col min="24" max="24" width="20.7833333333333" style="9" customWidth="1"/>
-    <col min="25" max="25" width="14.7" style="3" customWidth="1"/>
-    <col min="26" max="26" width="23.825" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="6" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="21.7777777777778" style="33" customWidth="1"/>
+    <col min="5" max="5" width="49.3333333333333" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8" style="33" customWidth="1"/>
+    <col min="7" max="7" width="27.5555555555556" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9" style="33" customWidth="1"/>
+    <col min="9" max="9" width="48.4444444444444" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1111111111111" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.2222222222222" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.4444444444444" style="4" customWidth="1"/>
+    <col min="13" max="13" width="36.4444444444444" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.1111111111111" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.4444444444444" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="33" customWidth="1"/>
+    <col min="17" max="17" width="29.5555555555556" style="33" customWidth="1"/>
+    <col min="18" max="18" width="17.1111111111111" style="33" customWidth="1"/>
+    <col min="19" max="19" width="26" style="34" customWidth="1"/>
+    <col min="20" max="20" width="17.1296296296296" style="34" customWidth="1"/>
+    <col min="21" max="21" width="20" style="27" customWidth="1"/>
+    <col min="22" max="22" width="15.6851851851852" style="27" customWidth="1"/>
+    <col min="23" max="23" width="23.0092592592593" style="27" customWidth="1"/>
+    <col min="24" max="24" width="20.787037037037" style="27" customWidth="1"/>
+    <col min="25" max="25" width="14.7037037037037" style="4" customWidth="1"/>
+    <col min="26" max="26" width="23.8240740740741" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
-      <c r="D1" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="5" t="s">
+      <c r="D1" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="4:24">
-      <c r="D2" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3" t="s">
+      <c r="E2" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="I2" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
+      <c r="O2" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" ht="165" spans="1:24">
-      <c r="A3" s="3" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="46"/>
+      <c r="U2" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="22">
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" ht="156" spans="1:24">
+      <c r="A3" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="33">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="F3" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="G3" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="H3" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="J3" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="O3" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="P3" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="Q3" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="R3" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="34" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="4" ht="33" spans="1:22">
-      <c r="A4" s="3" t="s">
+      <c r="U3" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="V3" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="22">
+      <c r="X3" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" ht="31.8" spans="1:22">
+      <c r="A4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="33">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="H4" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" ht="94.8" spans="1:24">
+      <c r="A5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="Q4" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" ht="81" spans="1:24">
-      <c r="A5" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="33">
         <v>1</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="H5" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="N5" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="O5" s="38" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="6" ht="49.5" spans="1:20">
-      <c r="A6" s="3" t="s">
+      <c r="P5" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="R5" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="X5" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="E6" s="23" t="s">
+    </row>
+    <row r="6" ht="63" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="E6" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="F6" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="H6" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="J6" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="L6" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" ht="31.2" spans="1:24">
+      <c r="A7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" ht="46.8" spans="1:18">
+      <c r="A9" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" ht="46.8" spans="1:24">
+      <c r="A10" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" ht="62.4" spans="1:24">
+      <c r="A12" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20">
+      <c r="C13" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="36">
+        <v>-10</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" ht="46.8" spans="4:24">
+      <c r="D14" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="M14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="1:24">
-      <c r="A7" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" ht="49.5" spans="1:18">
-      <c r="A9" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" ht="49.5" spans="1:24">
-      <c r="A10" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="S10" s="27" t="s">
+      <c r="R14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24">
+      <c r="D15" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="M15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" ht="31.2" spans="13:24">
+      <c r="M16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="X16" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="13:24">
+      <c r="M17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="U17" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="13:24">
+      <c r="M18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" ht="31.2" spans="13:24">
+      <c r="M19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="13:24">
+      <c r="M20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="V20" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="X20" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="13:24">
+      <c r="M21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="S21" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="13:24">
+      <c r="M22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S22" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="V22" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="W22" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="X22" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="13:24">
+      <c r="M23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" ht="66" spans="1:24">
-      <c r="A12" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20">
-      <c r="C13" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="25">
-        <v>-10</v>
-      </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-    </row>
-    <row r="14" ht="49.5" spans="4:24">
-      <c r="D14" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="9" t="s">
+      <c r="U23" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="W23" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" ht="93.6" spans="13:24">
+      <c r="M24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="X24" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="13:24">
+      <c r="M25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="X25" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="13:24">
+      <c r="M26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U26" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="X26" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" ht="78" spans="13:24">
+      <c r="M27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="13:24">
+      <c r="M28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="V28" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="13:24">
+      <c r="M29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="V29" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="X29" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="13:24">
+      <c r="M30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U30" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="X30" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="13:22">
+      <c r="M31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="U31" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="V31" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="21:22">
+      <c r="U32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="21:22">
+      <c r="U33" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="21:22">
+      <c r="U34" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="21:22">
+      <c r="U35" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="21:22">
+      <c r="U36" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="V36" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="21:22">
+      <c r="U37" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="V37" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="21:22">
+      <c r="U38" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="V38" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="X14" s="9" t="s">
+    </row>
+    <row r="39" spans="21:22">
+      <c r="U39" s="27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="4:24">
-      <c r="D15" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="M15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="W15" s="9" t="s">
+      <c r="V39" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="X15" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" ht="33" spans="13:24">
-      <c r="M16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="13:24">
-      <c r="M17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="13:24">
-      <c r="M18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="W18" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" ht="33" spans="13:24">
-      <c r="M19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="13:24">
-      <c r="M20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="T20" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="13:24">
-      <c r="M21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="S21" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="T21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="13:24">
-      <c r="M22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="S22" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="13:24">
-      <c r="M23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="T23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" ht="82.5" spans="13:24">
-      <c r="M24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="13:24">
-      <c r="M25" s="3" t="s">
+    </row>
+    <row r="40" spans="21:22">
+      <c r="U40" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="V40" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="21:22">
+      <c r="U41" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="V41" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="13:24">
-      <c r="M26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" ht="66" spans="13:24">
-      <c r="M27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="13:24">
-      <c r="M28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="13:24">
-      <c r="M29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="W29" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="X29" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="13:24">
-      <c r="M30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U30" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="V30" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="X30" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="13:22">
-      <c r="M31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="V31" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="21:22">
-      <c r="U32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V32" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="21:22">
-      <c r="U33" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="21:22">
-      <c r="U34" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="21:22">
-      <c r="U35" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="21:22">
-      <c r="U36" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="V36" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="21:22">
-      <c r="U37" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="V37" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="21:22">
-      <c r="U38" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="V38" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="21:22">
-      <c r="U39" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="V39" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="21:22">
-      <c r="U40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="V40" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="21:22">
-      <c r="U41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V41" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7978,943 +8460,943 @@
   <sheetPr/>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.7777777777778" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18.5555555555556" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.1333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="65.8916666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.4416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.3833333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.1333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1296296296296" style="25" customWidth="1"/>
+    <col min="13" max="13" width="20.1296296296296" style="25" customWidth="1"/>
+    <col min="14" max="14" width="65.8888888888889" style="25" customWidth="1"/>
+    <col min="15" max="15" width="15.4444444444444" style="1" customWidth="1"/>
+    <col min="16" max="16" width="32.3796296296296" style="25" customWidth="1"/>
+    <col min="17" max="17" width="17.1296296296296" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3" ht="115.5" spans="1:21">
-      <c r="A3" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" ht="109.2" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="M3" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" ht="33" spans="1:21">
-      <c r="A4" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3" t="s">
+      <c r="N3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="18" t="s">
+      <c r="P3" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="Q3" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="15" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" ht="31.8" spans="1:21">
+      <c r="A4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="15" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-    </row>
-    <row r="5" ht="49.5" spans="1:21">
-      <c r="A5" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3" t="s">
+      <c r="M4" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" ht="62.4" spans="1:21">
+      <c r="A5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" ht="33" spans="1:21">
-      <c r="A6" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="16" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="Q5" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" ht="31.2" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" ht="33" spans="1:21">
-      <c r="A7" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="3" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="15" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:21">
+      <c r="A7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="A8" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" ht="66" spans="1:21">
-      <c r="A10" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="A9" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" ht="63" spans="1:21">
+      <c r="A10" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-    </row>
-    <row r="12" ht="33" spans="1:21">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="O12" s="19" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" ht="31.2" spans="1:21">
+      <c r="A12" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" ht="66" spans="8:16">
-      <c r="H14" s="10" t="s">
-        <v>343</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" ht="78.6" spans="8:16">
+      <c r="H14" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" ht="78.6" spans="8:17">
+      <c r="H15" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="8:17">
+      <c r="H16" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" ht="94.8" spans="8:16">
+      <c r="H17" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="62.4" spans="8:16">
+      <c r="H18" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" ht="63.6" spans="8:17">
+      <c r="H19" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17">
+      <c r="H20" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17">
+      <c r="H21" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17">
+      <c r="H22" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" ht="31.8" spans="8:14">
+      <c r="H23" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" ht="62.4" spans="8:14">
+      <c r="H24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15">
+      <c r="H25" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15">
+      <c r="H26" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15">
+      <c r="H27" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15">
+      <c r="H28" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15">
+      <c r="H29" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" ht="312" spans="8:14">
+      <c r="H30" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="H39" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9">
+      <c r="H40" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M14" s="2" t="s">
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" ht="82.5" spans="8:17">
-      <c r="H15" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="8:17">
-      <c r="H16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" ht="82.5" spans="8:16">
-      <c r="H17" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="66" spans="8:16">
-      <c r="H18" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" ht="66" spans="8:17">
-      <c r="H19" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="8:17">
-      <c r="H20" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="8:17">
-      <c r="H21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="8:17">
-      <c r="H22" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" ht="33" spans="8:14">
-      <c r="H23" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" ht="66" spans="8:14">
-      <c r="H24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="25" spans="8:15">
-      <c r="H25" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="26" spans="8:15">
-      <c r="H26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="8:15">
-      <c r="H27" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="8:15">
-      <c r="H28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" spans="8:15">
-      <c r="H29" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" ht="313.5" spans="8:14">
-      <c r="H30" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9">
-      <c r="H37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9">
-      <c r="H38" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9">
-      <c r="H39" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9">
-      <c r="H40" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9">
-      <c r="H41" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" ht="115.5" spans="8:8">
-      <c r="H42" s="11" t="s">
-        <v>41</v>
+    </row>
+    <row r="42" ht="109.2" spans="8:8">
+      <c r="H42" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8937,4 +9419,398 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="35.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="2"/>
+    <col min="6" max="6" width="41.2222222222222" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.4444444444444" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:9">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" ht="46.8" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" ht="31.2" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" ht="141.6" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" ht="62.4" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" ht="63" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="16" ht="16.2" spans="6:7">
+      <c r="F16" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" ht="31.8" spans="6:7">
+      <c r="F19" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" ht="31.8" spans="6:7">
+      <c r="F21" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" ht="31.8" spans="6:7">
+      <c r="F22" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" ht="16.2" spans="6:7">
+      <c r="F23" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" ht="31.8" spans="6:7">
+      <c r="F24" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" ht="31.8" spans="6:7">
+      <c r="F25" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" ht="31.8" spans="6:7">
+      <c r="F26" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" ht="47.4" spans="6:7">
+      <c r="F27" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" ht="312" spans="6:6">
+      <c r="F28" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Reading/Question.xlsx
+++ b/Reading/Question.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="671">
   <si>
     <t>问题</t>
   </si>
@@ -3301,31 +3301,55 @@
     <t>In the 1970s when the study of Australian archaeology was in an exciting phase of development, with the great antiquity of rock art becoming clear. Lesley Maynard, the archaeologist who coined the phrase “Panaramitee style,” suggested that a sequence could be determined for Australian rock art, in which a geometric style gave way to a simple figurative style (outlines of figures and animals), followed by a range of complex figurative styles that, unlike the pan-Australian geometric tradition, tended to much greater regional diversity. While accepting that this sequence fits the archaeological profile of those sites, which were occupied continuously over many thousands of years a number of writers have warned that the underlying assumption of such a sequence—a development from the simple and the geometric to the complex and naturalistic—obscures the cultural continuities in Aboriginal Australia, in which geometric symbolism remains fundamentally important. In this context the simplicity of a geometric motif may be more apparent than real. Motifs of seeming simplicity can encode complex meanings in Aboriginal Australia. And has not twentieth-century art shown that naturalism does not necessarily follow abstraction in some kind of predetermine sequence?</t>
   </si>
   <si>
-    <t>breathing during sleep 23'20'' 记笔记时间花太久
-Cause Effect</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 50s
-5 63s
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 46s</t>
+    <r>
+      <t>breathing during sleep 23'20'' 记笔记时间花太久
+说睡觉的时候呼吸会有change，再说有哪些change
+Classification（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哪些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>moving into pueblos 20'4''
+说move这个现象，再说即使有可能也要move的原因；
+Cause Effect（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -3337,26 +3361,135 @@
 7 125s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知道是从高地势move到低地势，但没理解highest-lying lands，以及没仔细看到底是move toward还是away
+本段说need greater cooperation，段中提到11、12世纪就发现地域间exchange，又说all of this changed 13 世纪，大家都被同等影响（即没法以物易物了），更合理的办法是大家一起努力。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没理解段落结构
+且答案其实有这个转变的意思：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">People </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>went from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> exchanging food and crafts they individually produced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sharing in a cooperative effort to produce as much food as possible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 100s
+4 51s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 41s
+6 22s
+7 44s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 105s</t>
+    </r>
+  </si>
+  <si>
     <t>2 27s
 6 80s</t>
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 230s
-4 151s</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Finally, the coughing reflex in reaction to irritants in the airway produces not a cough during sleep but a cessation of breathing. </t>
     </r>
     <r>
@@ -3382,6 +3515,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -3399,6 +3538,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -3416,19 +3562,93 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">没看错选项的前后句子关联
-Occasionally, common sense tells you which of </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">句子就没读懂 traumatic
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abandoning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> small extended-family households </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> move into these large pueblos with dozens if not hundreds of other people </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> probably traumatic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>these two</t>
-    </r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 48s</t>
+    </r>
+  </si>
+  <si>
+    <t>两个过渡点：everyday household 和 more effort；
+插入句是概述，后面应有细节。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3436,11 +3656,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> possibilities applies</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>9</t>
     </r>
     <r>
@@ -3450,13 +3665,20 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 52s</t>
+      <t xml:space="preserve"> 93s</t>
     </r>
   </si>
   <si>
     <t>10 95s</t>
   </si>
   <si>
+    <t>问全段的题 看首尾</t>
+  </si>
+  <si>
+    <t>3 27s
+10 147s</t>
+  </si>
+  <si>
     <t>10 138s</t>
   </si>
   <si>
@@ -3466,6 +3688,126 @@
     <t>胸腔</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Few of the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cultural traditions and rules </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">that today allow us to deal with dense populations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>existed for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> these people </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>accustomed to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>household</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> autonomy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the ability to move around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the landscape almost at will.</t>
+    </r>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
     <t>diaphragm</t>
   </si>
   <si>
@@ -3473,6 +3815,45 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">with large numbers of people moving into large </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>communal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dwellings called pueblos</t>
+    </r>
+  </si>
+  <si>
+    <t>群体的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">two </t>
     </r>
     <r>
@@ -3499,12 +3880,118 @@
     <t>相互影响的</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abandoning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>small extended-family households</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> move into these large pueblos with dozens if not hundreds of other people was probably </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>traumatic</t>
+    </r>
+  </si>
+  <si>
+    <t>小型家庭形式；
+受伤的</t>
+  </si>
+  <si>
     <t>subconsciously</t>
   </si>
   <si>
     <t>潜意识的</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">living in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">aggregated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pueblos introduced other problems</t>
+    </r>
+  </si>
+  <si>
+    <t>人口密集的；聚合的</t>
+  </si>
+  <si>
     <t>acid-base ratio</t>
   </si>
   <si>
@@ -3512,6 +3999,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hauling water, wood, and food to their homes was a major </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chore</t>
+    </r>
+  </si>
+  <si>
+    <t>苦差事</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The second system is the </t>
     </r>
     <r>
@@ -3538,6 +4055,30 @@
     <t>自发的，自主的</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">why did people in the thirteenth century move into these closely packed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quarters</t>
+    </r>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
     <t>override</t>
   </si>
   <si>
@@ -3545,6 +4086,45 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">people </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>packed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the landscape in densities</t>
+    </r>
+  </si>
+  <si>
+    <t>聚集</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">metabolic system is less </t>
     </r>
     <r>
@@ -3572,6 +4152,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>culminating in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> crowded pueblos</t>
+    </r>
+  </si>
+  <si>
+    <t>以...为发展结果；类似于lead to</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">as the sleeper </t>
     </r>
     <r>
@@ -3599,6 +4209,45 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Some scholars expand on this idea by emphasizing a corresponding need for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arable land</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to feed growing numbers of people</t>
+    </r>
+  </si>
+  <si>
+    <t>可耕种的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">there may be a brief </t>
     </r>
     <r>
@@ -3617,6 +4266,126 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">construction of small dams, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reservoirs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>terraces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>field houses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> indicates that farmers were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intensifying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> their efforts during the 1200s. Competition for good farmland may also have prompted people to bond together to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>assert rights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> over the best fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>水库；
+梯田；
+田间房屋；
+强化；
+争取...的权力</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>inhaling</t>
     </r>
     <r>
@@ -3653,6 +4422,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>infringing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on the lands of other farmers and pushing people together</t>
+    </r>
+  </si>
+  <si>
+    <t>侵犯</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Other </t>
     </r>
     <r>
@@ -3680,6 +4479,85 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Scholars believe that this cooperation allowed people to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contend with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>patchy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> environment in which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>precipitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and other resources varied across the landscape</t>
+    </r>
+  </si>
+  <si>
+    <t>应对；
+不均匀的，局部的；
+降水；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">This </t>
     </r>
     <r>
@@ -3707,6 +4585,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">the coughing reflex in reaction to </t>
     </r>
     <r>
@@ -3746,7 +4630,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3964,6 +4848,27 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4493,16 +5398,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4521,74 +5423,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -5057,2227 +5941,2227 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="43.1388888888889" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="51"/>
-    <col min="4" max="4" width="29.8796296296296" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.6296296296296" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.5555555555556" style="51" customWidth="1"/>
-    <col min="7" max="7" width="27" style="51" customWidth="1"/>
-    <col min="8" max="8" width="22.5555555555556" style="51" customWidth="1"/>
-    <col min="9" max="11" width="9" style="51"/>
-    <col min="12" max="12" width="77.6666666666667" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28.1018518518519" style="5" customWidth="1"/>
-    <col min="14" max="14" width="20.3888888888889" style="51" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="43.1388888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="44"/>
+    <col min="4" max="4" width="29.8796296296296" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5555555555556" style="44" customWidth="1"/>
+    <col min="7" max="7" width="27" style="44" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" style="44" customWidth="1"/>
+    <col min="9" max="11" width="9" style="44"/>
+    <col min="12" max="12" width="77.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.1018518518519" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.3888888888889" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="L1" s="63" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="51" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="31.2" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="L2" s="27" t="s">
+      <c r="H2" s="4"/>
+      <c r="L2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="31.2" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="78" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="52" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="62.4" spans="1:12">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="31.2" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="64"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" ht="62.4" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="58" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="31.8" spans="1:13">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" ht="48" spans="1:12">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" ht="288.6" spans="1:12">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="57" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" ht="47.4" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="57" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" ht="31.2" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="57" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" ht="62.4" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="57" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="57" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" ht="79.8" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="58" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" ht="31.2" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="58" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" ht="31.2" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="58" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="58" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" ht="31.8" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="58" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" ht="31.2" spans="1:8">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" ht="31.2" spans="1:8">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="28" ht="47.4" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" spans="4:8">
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="4:8">
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" spans="4:8">
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="4:8">
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="36" spans="4:8">
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="4:8">
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" ht="124.8" spans="4:8">
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="46" spans="4:8">
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="4:8">
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="4:8">
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="4:8">
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="4:8">
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="4:8">
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="4:8">
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="4:8">
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="4:8">
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="4:8">
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="4:8">
-      <c r="D59" s="62" t="s">
+      <c r="D59" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="4:8">
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="4:8">
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="4:8">
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="4:8">
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="4:8">
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="4:8">
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="4:8">
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="4:8">
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="4:8">
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="4:8">
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="4:8">
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="4:8">
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="4:8">
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="4:8">
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="4:8">
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" ht="31.2" spans="4:8">
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="4:8">
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="4:8">
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="4:8">
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="4:8">
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="4:8">
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="4:8">
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="4:8">
-      <c r="D82" s="57" t="s">
+      <c r="D82" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="4:8">
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="4:8">
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="4:8">
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="4:8">
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="4:8">
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="4:8">
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="4:8">
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="4:8">
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="4:8">
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="4:8">
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="4:8">
-      <c r="D93" s="58" t="s">
+      <c r="D93" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="4:8">
-      <c r="D94" s="58" t="s">
+      <c r="D94" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="4:8">
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="4:8">
-      <c r="D96" s="58" t="s">
+      <c r="D96" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="4:8">
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="4:8">
-      <c r="D98" s="58" t="s">
+      <c r="D98" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="4:8">
-      <c r="D99" s="58" t="s">
+      <c r="D99" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="4:8">
-      <c r="D100" s="58" t="s">
+      <c r="D100" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="4:8">
-      <c r="D101" s="58" t="s">
+      <c r="D101" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="4:8">
-      <c r="D102" s="58" t="s">
+      <c r="D102" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="4:8">
-      <c r="D103" s="58" t="s">
+      <c r="D103" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="4:8">
-      <c r="D104" s="58" t="s">
+      <c r="D104" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="4:8">
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="4:8">
-      <c r="D106" s="58" t="s">
+      <c r="D106" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="4:8">
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="4:8">
-      <c r="D108" s="58" t="s">
+      <c r="D108" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="4:8">
-      <c r="D109" s="58" t="s">
+      <c r="D109" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="4:5">
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
     </row>
     <row r="111" ht="17.4" spans="4:5">
-      <c r="D111" s="68" t="s">
+      <c r="D111" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="112" spans="4:5">
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="113" spans="4:6">
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F113" s="51" t="s">
+      <c r="F113" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="114" ht="17.4" spans="4:5">
-      <c r="D114" s="68" t="s">
+      <c r="D114" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="115" spans="4:5">
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="117" spans="4:5">
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="118" spans="4:6">
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F118" s="51" t="s">
+      <c r="F118" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="120" spans="4:5">
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="121" spans="4:6">
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F121" s="51" t="s">
+      <c r="F121" s="44" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="122" spans="4:5">
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="123" spans="4:6">
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F123" s="51" t="s">
+      <c r="F123" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="124" spans="4:5">
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="125" spans="4:5">
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="126" spans="4:5">
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="127" spans="4:5">
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="128" spans="4:6">
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F128" s="51" t="s">
+      <c r="F128" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="130" spans="4:6">
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F130" s="51" t="s">
+      <c r="F130" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="131" spans="4:6">
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F131" s="51" t="s">
+      <c r="F131" s="44" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="132" spans="4:6">
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F132" s="51" t="s">
+      <c r="F132" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="133" spans="4:6">
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F133" s="51" t="s">
+      <c r="F133" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="134" spans="4:6">
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F134" s="51" t="s">
+      <c r="F134" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="135" spans="4:5">
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="136" spans="4:6">
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F136" s="51" t="s">
+      <c r="F136" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="137" spans="4:5">
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="138" spans="4:5">
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="140" spans="4:5">
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="141" spans="4:5">
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="142" spans="4:6">
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F142" s="51" t="s">
+      <c r="F142" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="143" spans="4:6">
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F143" s="51" t="s">
+      <c r="F143" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="144" spans="4:5">
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="145" spans="4:5">
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="146" spans="4:5">
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="147" spans="4:6">
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="51" t="s">
+      <c r="F147" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="148" spans="4:5">
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="149" spans="4:5">
-      <c r="D149" s="61" t="s">
+      <c r="D149" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="150" spans="4:5">
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="151" spans="4:6">
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F151" s="51" t="s">
+      <c r="F151" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="152" spans="4:6">
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F152" s="51" t="s">
+      <c r="F152" s="44" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="153" spans="4:5">
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="154" spans="4:5">
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="155" spans="4:6">
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F155" s="51" t="s">
+      <c r="F155" s="44" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="156" spans="4:5">
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="157" ht="124.8" spans="4:6">
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F157" s="51" t="s">
+      <c r="F157" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="158" spans="4:6">
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F158" s="51" t="s">
+      <c r="F158" s="44" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="159" spans="4:5">
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="160" spans="4:6">
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F160" s="51" t="s">
+      <c r="F160" s="44" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="161" spans="4:5">
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="162" spans="4:6">
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F162" s="51" t="s">
+      <c r="F162" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="163" spans="4:5">
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="164" spans="4:5">
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="165" spans="4:5">
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="166" spans="4:6">
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F166" s="51" t="s">
+      <c r="F166" s="44" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="167" ht="78.6" spans="4:5">
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="168" ht="78.6" spans="4:5">
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="169" spans="4:5">
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="170" ht="79.2" spans="4:5">
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="171" spans="4:5">
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="172" spans="4:5">
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="173" spans="4:6">
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F173" s="51" t="s">
+      <c r="F173" s="44" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7304,1127 +8188,1127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="6" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="21.7777777777778" style="33" customWidth="1"/>
-    <col min="5" max="5" width="49.3333333333333" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8" style="33" customWidth="1"/>
-    <col min="7" max="7" width="27.5555555555556" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9" style="33" customWidth="1"/>
-    <col min="9" max="9" width="48.4444444444444" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.2222222222222" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.4444444444444" style="4" customWidth="1"/>
-    <col min="13" max="13" width="36.4444444444444" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.1111111111111" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.4444444444444" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.3333333333333" style="33" customWidth="1"/>
-    <col min="17" max="17" width="29.5555555555556" style="33" customWidth="1"/>
-    <col min="18" max="18" width="17.1111111111111" style="33" customWidth="1"/>
-    <col min="19" max="19" width="26" style="34" customWidth="1"/>
-    <col min="20" max="20" width="17.1296296296296" style="34" customWidth="1"/>
-    <col min="21" max="21" width="20" style="27" customWidth="1"/>
-    <col min="22" max="22" width="15.6851851851852" style="27" customWidth="1"/>
-    <col min="23" max="23" width="23.0092592592593" style="27" customWidth="1"/>
-    <col min="24" max="24" width="20.787037037037" style="27" customWidth="1"/>
-    <col min="25" max="25" width="14.7037037037037" style="4" customWidth="1"/>
-    <col min="26" max="26" width="23.8240740740741" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="21.7777777777778" style="26" customWidth="1"/>
+    <col min="5" max="5" width="49.3333333333333" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27.5555555555556" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9" style="26" customWidth="1"/>
+    <col min="9" max="9" width="48.4444444444444" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.1111111111111" style="3" customWidth="1"/>
+    <col min="11" max="11" width="32.2222222222222" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.4444444444444" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36.4444444444444" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.1111111111111" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.4444444444444" style="26" customWidth="1"/>
+    <col min="16" max="16" width="14.3333333333333" style="26" customWidth="1"/>
+    <col min="17" max="17" width="29.5555555555556" style="26" customWidth="1"/>
+    <col min="18" max="18" width="17.1111111111111" style="26" customWidth="1"/>
+    <col min="19" max="19" width="26" style="27" customWidth="1"/>
+    <col min="20" max="20" width="17.1296296296296" style="27" customWidth="1"/>
+    <col min="21" max="21" width="20" style="21" customWidth="1"/>
+    <col min="22" max="22" width="15.6851851851852" style="21" customWidth="1"/>
+    <col min="23" max="23" width="23.0092592592593" style="21" customWidth="1"/>
+    <col min="24" max="24" width="20.787037037037" style="21" customWidth="1"/>
+    <col min="25" max="25" width="14.7037037037037" style="3" customWidth="1"/>
+    <col min="26" max="26" width="23.8240740740741" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:26">
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="36" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="6" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="4:24">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="46" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="X2" s="6"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" ht="156" spans="1:24">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="26">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="21" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="4" ht="31.8" spans="1:22">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="26">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="21" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="5" ht="94.8" spans="1:24">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="21" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="6" ht="63" spans="1:20">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="27" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="7" ht="31.2" spans="1:24">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="21" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="9" ht="46.8" spans="1:18">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="26">
         <v>1</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="R9" s="33" t="s">
+      <c r="R9" s="26" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" ht="46.8" spans="1:24">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="V10" s="27" t="s">
+      <c r="V10" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="X10" s="27" t="s">
+      <c r="X10" s="21" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="V11" s="27" t="s">
+      <c r="V11" s="21" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="12" ht="62.4" spans="1:24">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="Q12" s="43" t="s">
+      <c r="Q12" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="R12" s="43" t="s">
+      <c r="R12" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="V12" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="X12" s="27" t="s">
+      <c r="X12" s="21" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="13" spans="3:20">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="36">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="29">
         <v>-10</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" ht="46.8" spans="4:24">
-      <c r="D14" s="39">
+      <c r="D14" s="32">
         <v>0.8</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="33">
         <v>0.8</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
         <v>0.9</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="M14" s="4" t="s">
+      <c r="H14" s="29"/>
+      <c r="M14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="34" t="s">
+      <c r="S14" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="T14" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="U14" s="27" t="s">
+      <c r="U14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="27" t="s">
+      <c r="V14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="27" t="s">
+      <c r="W14" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="X14" s="27" t="s">
+      <c r="X14" s="21" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="M15" s="4" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="U15" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="27" t="s">
+      <c r="V15" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="W15" s="27" t="s">
+      <c r="W15" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="X15" s="27" t="s">
+      <c r="X15" s="21" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" ht="31.2" spans="13:24">
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="47" t="s">
+      <c r="Q16" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="S16" s="34" t="s">
+      <c r="S16" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="T16" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="U16" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="V16" s="27" t="s">
+      <c r="V16" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="W16" s="27" t="s">
+      <c r="W16" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="X16" s="27" t="s">
+      <c r="X16" s="21" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="13:24">
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="S17" s="34" t="s">
+      <c r="S17" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="T17" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="U17" s="48" t="s">
+      <c r="U17" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="V17" s="27" t="s">
+      <c r="V17" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="27" t="s">
+      <c r="W17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="13:24">
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="S18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="34" t="s">
+      <c r="T18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="U18" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="V18" s="27" t="s">
+      <c r="V18" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="W18" s="48" t="s">
+      <c r="W18" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="X18" s="27" t="s">
+      <c r="X18" s="21" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="19" ht="31.2" spans="13:24">
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="U19" s="27" t="s">
+      <c r="U19" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="V19" s="27" t="s">
+      <c r="V19" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="W19" s="27" t="s">
+      <c r="W19" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="X19" s="21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="13:24">
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="U20" s="27" t="s">
+      <c r="U20" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="V20" s="27" t="s">
+      <c r="V20" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="W20" s="27" t="s">
+      <c r="W20" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="X20" s="27" t="s">
+      <c r="X20" s="21" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="13:24">
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="27" t="s">
+      <c r="U21" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="V21" s="27" t="s">
+      <c r="V21" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="W21" s="27" t="s">
+      <c r="W21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="X21" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="13:24">
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="S22" s="49" t="s">
+      <c r="S22" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="U22" s="27" t="s">
+      <c r="U22" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="V22" s="27" t="s">
+      <c r="V22" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="W22" s="27" t="s">
+      <c r="W22" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="X22" s="27" t="s">
+      <c r="X22" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="23" spans="13:24">
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="S23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="T23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="U23" s="27" t="s">
+      <c r="U23" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="W23" s="27" t="s">
+      <c r="W23" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="X23" s="21" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="24" ht="93.6" spans="13:24">
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="S24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="27" t="s">
+      <c r="U24" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="V24" s="27" t="s">
+      <c r="V24" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="W24" s="27" t="s">
+      <c r="W24" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="X24" s="27" t="s">
+      <c r="X24" s="21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="13:24">
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U25" s="27" t="s">
+      <c r="U25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="27" t="s">
+      <c r="W25" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="X25" s="27" t="s">
+      <c r="X25" s="21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="26" spans="13:24">
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="U26" s="50" t="s">
+      <c r="U26" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="W26" s="27" t="s">
+      <c r="W26" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="X26" s="27" t="s">
+      <c r="X26" s="21" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" ht="78" spans="13:24">
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="27" t="s">
+      <c r="U27" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="V27" s="27" t="s">
+      <c r="V27" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="W27" s="27" t="s">
+      <c r="W27" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="X27" s="21" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="28" spans="13:24">
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U28" s="27" t="s">
+      <c r="U28" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="V28" s="27" t="s">
+      <c r="V28" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="W28" s="27" t="s">
+      <c r="W28" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="X28" s="27" t="s">
+      <c r="X28" s="21" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="29" spans="13:24">
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="U29" s="27" t="s">
+      <c r="U29" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="V29" s="27" t="s">
+      <c r="V29" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="W29" s="27" t="s">
+      <c r="W29" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="X29" s="27" t="s">
+      <c r="X29" s="21" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30" spans="13:24">
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U30" s="48" t="s">
+      <c r="U30" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="V30" s="27" t="s">
+      <c r="V30" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="W30" s="27" t="s">
+      <c r="W30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="X30" s="27" t="s">
+      <c r="X30" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="13:22">
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N31" s="41" t="s">
+      <c r="N31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="U31" s="27" t="s">
+      <c r="U31" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="V31" s="27" t="s">
+      <c r="V31" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="32" spans="21:22">
-      <c r="U32" s="27" t="s">
+      <c r="U32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="27" t="s">
+      <c r="V32" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="21:22">
-      <c r="U33" s="27" t="s">
+      <c r="U33" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="V33" s="27" t="s">
+      <c r="V33" s="21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="34" spans="21:22">
-      <c r="U34" s="27" t="s">
+      <c r="U34" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="V34" s="27" t="s">
+      <c r="V34" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" spans="21:22">
-      <c r="U35" s="27" t="s">
+      <c r="U35" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="V35" s="27" t="s">
+      <c r="V35" s="21" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="36" spans="21:22">
-      <c r="U36" s="48" t="s">
+      <c r="U36" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="V36" s="27" t="s">
+      <c r="V36" s="21" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="37" spans="21:22">
-      <c r="U37" s="27" t="s">
+      <c r="U37" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="V37" s="27" t="s">
+      <c r="V37" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="38" spans="21:22">
-      <c r="U38" s="27" t="s">
+      <c r="U38" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="V38" s="27" t="s">
+      <c r="V38" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="39" spans="21:22">
-      <c r="U39" s="27" t="s">
+      <c r="U39" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="V39" s="27" t="s">
+      <c r="V39" s="21" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="40" spans="21:22">
-      <c r="U40" s="27" t="s">
+      <c r="U40" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="V40" s="27" t="s">
+      <c r="V40" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="21:22">
-      <c r="U41" s="27" t="s">
+      <c r="U41" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="V41" s="27" t="s">
+      <c r="V41" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8469,534 +9353,534 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7777777777778" style="25" customWidth="1"/>
+    <col min="8" max="8" width="43.7777777777778" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.5555555555556" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1296296296296" style="25" customWidth="1"/>
-    <col min="13" max="13" width="20.1296296296296" style="25" customWidth="1"/>
-    <col min="14" max="14" width="65.8888888888889" style="25" customWidth="1"/>
+    <col min="12" max="12" width="28.1296296296296" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.1296296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="65.8888888888889" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.3796296296296" style="25" customWidth="1"/>
+    <col min="16" max="16" width="32.3796296296296" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.1296296296296" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="19" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" ht="109.2" spans="1:21">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" ht="31.8" spans="1:21">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" ht="62.4" spans="1:21">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" ht="31.2" spans="1:21">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="11" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" ht="31.2" spans="1:21">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" ht="63" spans="1:21">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="11" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" ht="31.2" spans="1:21">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" ht="78.6" spans="8:16">
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="22" t="s">
         <v>346</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="2" t="s">
         <v>220</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="15" ht="78.6" spans="8:17">
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="2" t="s">
         <v>348</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="2" t="s">
         <v>402</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="2" t="s">
         <v>423</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -9004,25 +9888,25 @@
       </c>
     </row>
     <row r="16" spans="8:17">
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="2" t="s">
         <v>404</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="2" t="s">
         <v>425</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -9030,71 +9914,71 @@
       </c>
     </row>
     <row r="17" ht="94.8" spans="8:16">
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="2" t="s">
         <v>224</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" ht="62.4" spans="8:16">
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="2" t="s">
         <v>407</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" ht="63.6" spans="8:17">
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="2" t="s">
         <v>228</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="2" t="s">
         <v>427</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -9102,25 +9986,25 @@
       </c>
     </row>
     <row r="20" spans="8:17">
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="2" t="s">
         <v>356</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="2" t="s">
         <v>231</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="P20" s="2" t="s">
         <v>429</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -9128,25 +10012,25 @@
       </c>
     </row>
     <row r="21" spans="8:17">
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="2" t="s">
         <v>164</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="2" t="s">
         <v>410</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="2" t="s">
         <v>431</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -9154,25 +10038,25 @@
       </c>
     </row>
     <row r="22" spans="8:17">
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="2" t="s">
         <v>358</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="2" t="s">
         <v>235</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="2" t="s">
         <v>244</v>
       </c>
       <c r="Q22" s="1" t="s">
@@ -9180,53 +10064,53 @@
       </c>
     </row>
     <row r="23" ht="31.8" spans="8:14">
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="2" t="s">
         <v>360</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="2" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="24" ht="62.4" spans="8:14">
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="2" t="s">
         <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="2" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="25" spans="8:15">
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="2" t="s">
         <v>363</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="2" t="s">
         <v>413</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -9234,19 +10118,19 @@
       </c>
     </row>
     <row r="26" spans="8:15">
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="2" t="s">
         <v>237</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -9254,13 +10138,13 @@
       </c>
     </row>
     <row r="27" spans="8:15">
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="2" t="s">
         <v>415</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -9268,13 +10152,13 @@
       </c>
     </row>
     <row r="28" spans="8:15">
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="2" t="s">
         <v>368</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="2" t="s">
         <v>419</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -9282,13 +10166,13 @@
       </c>
     </row>
     <row r="29" spans="8:15">
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="2" t="s">
         <v>370</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="2" t="s">
         <v>240</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -9296,18 +10180,18 @@
       </c>
     </row>
     <row r="30" ht="312" spans="8:14">
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="2" t="s">
         <v>372</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="2" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="31" spans="8:9">
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="2" t="s">
         <v>178</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -9315,7 +10199,7 @@
       </c>
     </row>
     <row r="32" spans="8:9">
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="2" t="s">
         <v>375</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -9323,7 +10207,7 @@
       </c>
     </row>
     <row r="33" spans="8:9">
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -9331,7 +10215,7 @@
       </c>
     </row>
     <row r="34" spans="8:9">
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -9339,7 +10223,7 @@
       </c>
     </row>
     <row r="35" spans="8:9">
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="2" t="s">
         <v>190</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -9347,7 +10231,7 @@
       </c>
     </row>
     <row r="36" spans="8:9">
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="2" t="s">
         <v>194</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -9355,7 +10239,7 @@
       </c>
     </row>
     <row r="37" spans="8:9">
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="2" t="s">
         <v>198</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -9363,7 +10247,7 @@
       </c>
     </row>
     <row r="38" spans="8:9">
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="2" t="s">
         <v>379</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -9371,7 +10255,7 @@
       </c>
     </row>
     <row r="39" spans="8:9">
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -9379,7 +10263,7 @@
       </c>
     </row>
     <row r="40" spans="8:9">
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="2" t="s">
         <v>381</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -9387,7 +10271,7 @@
       </c>
     </row>
     <row r="41" spans="8:9">
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="2" t="s">
         <v>383</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -9395,7 +10279,7 @@
       </c>
     </row>
     <row r="42" ht="109.2" spans="8:8">
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9427,377 +10311,468 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="35.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="2"/>
-    <col min="6" max="6" width="41.2222222222222" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.4444444444444" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="1"/>
+    <col min="6" max="6" width="41.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" ht="42" customHeight="1" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" ht="73" customHeight="1" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="46.8" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" ht="298.8" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="4" ht="31.2" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" ht="141.6" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" ht="62.4" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="95.4" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
-        <v>608</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" ht="63" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" ht="31.2" spans="1:9">
+      <c r="A11" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="22" t="s">
-        <v>613</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" ht="127.2" spans="6:9">
+      <c r="F14" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="22" t="s">
-        <v>615</v>
+        <v>619</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" ht="47.4" spans="6:9">
+      <c r="F15" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" ht="16.2" spans="6:7">
-      <c r="F16" s="22" t="s">
-        <v>617</v>
+        <v>623</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" ht="95.4" spans="6:9">
+      <c r="F16" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="22" t="s">
-        <v>619</v>
+        <v>627</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" ht="31.8" spans="6:9">
+      <c r="F17" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="22" t="s">
-        <v>621</v>
+        <v>631</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" ht="47.4" spans="6:9">
+      <c r="F18" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="19" ht="31.8" spans="6:7">
-      <c r="F19" s="22" t="s">
-        <v>623</v>
+        <v>635</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" ht="47.4" spans="6:9">
+      <c r="F19" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="21" ht="31.8" spans="6:7">
-      <c r="F21" s="22" t="s">
-        <v>627</v>
+        <v>639</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" ht="31.8" spans="6:9">
+      <c r="F20" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" ht="31.8" spans="6:9">
+      <c r="F21" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="22" ht="31.8" spans="6:7">
-      <c r="F22" s="22" t="s">
-        <v>629</v>
+        <v>647</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" ht="79.2" spans="6:9">
+      <c r="F22" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" ht="16.2" spans="6:7">
-      <c r="F23" s="22" t="s">
-        <v>631</v>
+        <v>651</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" ht="142.8" spans="6:9">
+      <c r="F23" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="24" ht="31.8" spans="6:7">
-      <c r="F24" s="23" t="s">
-        <v>633</v>
+        <v>655</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" ht="47.4" spans="6:9">
+      <c r="F24" s="17" t="s">
+        <v>658</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="25" ht="31.8" spans="6:7">
-      <c r="F25" s="22" t="s">
-        <v>635</v>
+        <v>659</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" ht="110.4" spans="6:9">
+      <c r="F25" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>636</v>
+        <v>663</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="26" ht="31.8" spans="6:7">
-      <c r="F26" s="22" t="s">
-        <v>637</v>
+      <c r="F26" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" ht="47.4" spans="6:7">
-      <c r="F27" s="22" t="s">
-        <v>639</v>
+      <c r="F27" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" ht="312" spans="6:6">
-      <c r="F28" s="22" t="s">
-        <v>641</v>
+      <c r="F28" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
